--- a/database.xlsx
+++ b/database.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner0220\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\titanv\Documents\Git\random-teambuild-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4165DD-53C5-4197-9BDC-CED725CB209B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="158">
   <si>
     <t>user</t>
   </si>
@@ -433,11 +435,97 @@
   <si>
     <t>접속 시간</t>
   </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기소개</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>포지션2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>포지션1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 주제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의 위치1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의 위치2</t>
+  </si>
+  <si>
+    <t>회의 위치3</t>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유스킬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속 팀</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 소개</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 포지션</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 스킬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>플젝 주제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾는 멤버</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀장</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 따로</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,14 +1045,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1115,7 @@
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
     </row>
-    <row r="2" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1341,7 @@
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
     </row>
-    <row r="5" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -1300,7 +1393,7 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
     </row>
-    <row r="6" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -1354,7 +1447,7 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
     </row>
-    <row r="7" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1412,7 +1505,7 @@
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
     </row>
-    <row r="8" spans="1:36" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>46</v>
       </c>
@@ -1470,7 +1563,7 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
     </row>
-    <row r="9" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -1522,7 +1615,7 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
     </row>
-    <row r="10" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1572,7 +1665,7 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
     </row>
-    <row r="11" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1624,7 +1717,7 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
     </row>
-    <row r="12" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1676,7 +1769,7 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
     </row>
-    <row r="13" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1714,7 +1807,7 @@
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
     </row>
-    <row r="14" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1752,7 +1845,7 @@
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
     </row>
-    <row r="15" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1790,7 +1883,7 @@
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
     </row>
-    <row r="16" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1828,7 +1921,7 @@
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
     </row>
-    <row r="17" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1866,7 +1959,7 @@
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
     </row>
-    <row r="18" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1904,7 +1997,7 @@
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
     </row>
-    <row r="19" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1942,7 +2035,7 @@
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
     </row>
-    <row r="20" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1980,7 +2073,7 @@
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
     </row>
-    <row r="21" spans="1:36" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>66</v>
       </c>
@@ -2042,7 +2135,7 @@
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
     </row>
-    <row r="22" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
@@ -2128,7 +2221,7 @@
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
     </row>
-    <row r="23" spans="1:36" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
@@ -2214,7 +2307,7 @@
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
     </row>
-    <row r="24" spans="1:36" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2276,7 +2369,7 @@
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
     </row>
-    <row r="25" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2330,7 +2423,7 @@
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
     </row>
-    <row r="26" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2376,7 +2469,7 @@
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
     </row>
-    <row r="27" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2422,7 +2515,7 @@
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
     </row>
-    <row r="28" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2468,7 +2561,7 @@
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
     </row>
-    <row r="29" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2512,7 +2605,7 @@
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
     </row>
-    <row r="30" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2556,7 +2649,7 @@
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
     </row>
-    <row r="31" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2600,7 +2693,7 @@
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
     </row>
-    <row r="32" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2644,7 +2737,7 @@
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
     </row>
-    <row r="33" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2688,7 +2781,7 @@
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
     </row>
-    <row r="34" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2732,7 +2825,7 @@
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
     </row>
-    <row r="35" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2776,7 +2869,7 @@
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
     </row>
-    <row r="36" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2820,7 +2913,7 @@
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
     </row>
-    <row r="37" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2858,7 +2951,7 @@
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
     </row>
-    <row r="38" spans="1:36" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>113</v>
       </c>
@@ -2908,7 +3001,7 @@
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
     </row>
-    <row r="39" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>10</v>
       </c>
@@ -2970,7 +3063,7 @@
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
     </row>
-    <row r="40" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>119</v>
       </c>
@@ -3032,7 +3125,7 @@
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
     </row>
-    <row r="41" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3078,7 +3171,7 @@
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
     </row>
-    <row r="42" spans="1:36" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3124,7 +3217,7 @@
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
     </row>
-    <row r="43" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3170,7 +3263,7 @@
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
     </row>
-    <row r="44" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3214,7 +3307,7 @@
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
     </row>
-    <row r="45" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3258,7 +3351,7 @@
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
     </row>
-    <row r="46" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3296,7 +3389,7 @@
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
     </row>
-    <row r="47" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3334,7 +3427,7 @@
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
     </row>
-    <row r="48" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3372,7 +3465,7 @@
       <c r="AI48" s="4"/>
       <c r="AJ48" s="4"/>
     </row>
-    <row r="49" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -3410,7 +3503,7 @@
       <c r="AI49" s="4"/>
       <c r="AJ49" s="4"/>
     </row>
-    <row r="50" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>131</v>
       </c>
@@ -3452,7 +3545,7 @@
       <c r="AI50" s="4"/>
       <c r="AJ50" s="4"/>
     </row>
-    <row r="51" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>10</v>
       </c>
@@ -3498,7 +3591,7 @@
       <c r="AI51" s="4"/>
       <c r="AJ51" s="4"/>
     </row>
-    <row r="52" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>18</v>
       </c>
@@ -3544,7 +3637,7 @@
       <c r="AI52" s="4"/>
       <c r="AJ52" s="4"/>
     </row>
-    <row r="53" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>133</v>
       </c>
@@ -3586,7 +3679,7 @@
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4"/>
     </row>
-    <row r="54" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>129</v>
       </c>
@@ -3630,7 +3723,7 @@
       <c r="AI54" s="4"/>
       <c r="AJ54" s="4"/>
     </row>
-    <row r="55" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3668,7 +3761,7 @@
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
     </row>
-    <row r="56" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3706,7 +3799,7 @@
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
     </row>
-    <row r="57" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3744,7 +3837,7 @@
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
     </row>
-    <row r="58" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3782,7 +3875,7 @@
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
     </row>
-    <row r="59" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3820,7 +3913,7 @@
       <c r="AI59" s="4"/>
       <c r="AJ59" s="4"/>
     </row>
-    <row r="60" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3858,7 +3951,7 @@
       <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
     </row>
-    <row r="61" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3896,7 +3989,7 @@
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
     </row>
-    <row r="62" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3934,7 +4027,7 @@
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
     </row>
-    <row r="63" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3972,7 +4065,7 @@
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
     </row>
-    <row r="64" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -4010,7 +4103,7 @@
       <c r="AI64" s="4"/>
       <c r="AJ64" s="4"/>
     </row>
-    <row r="65" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -4048,7 +4141,7 @@
       <c r="AI65" s="4"/>
       <c r="AJ65" s="4"/>
     </row>
-    <row r="66" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -4086,7 +4179,7 @@
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
     </row>
-    <row r="67" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -4124,7 +4217,7 @@
       <c r="AI67" s="4"/>
       <c r="AJ67" s="4"/>
     </row>
-    <row r="68" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -4162,7 +4255,7 @@
       <c r="AI68" s="4"/>
       <c r="AJ68" s="4"/>
     </row>
-    <row r="69" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -4200,7 +4293,7 @@
       <c r="AI69" s="4"/>
       <c r="AJ69" s="4"/>
     </row>
-    <row r="70" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -4238,7 +4331,7 @@
       <c r="AI70" s="4"/>
       <c r="AJ70" s="4"/>
     </row>
-    <row r="71" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -4276,7 +4369,7 @@
       <c r="AI71" s="4"/>
       <c r="AJ71" s="4"/>
     </row>
-    <row r="72" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -4314,7 +4407,7 @@
       <c r="AI72" s="4"/>
       <c r="AJ72" s="4"/>
     </row>
-    <row r="73" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -4352,7 +4445,7 @@
       <c r="AI73" s="4"/>
       <c r="AJ73" s="4"/>
     </row>
-    <row r="74" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -4390,7 +4483,7 @@
       <c r="AI74" s="4"/>
       <c r="AJ74" s="4"/>
     </row>
-    <row r="75" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -4428,7 +4521,7 @@
       <c r="AI75" s="4"/>
       <c r="AJ75" s="4"/>
     </row>
-    <row r="76" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -4466,7 +4559,7 @@
       <c r="AI76" s="4"/>
       <c r="AJ76" s="4"/>
     </row>
-    <row r="77" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -4504,7 +4597,7 @@
       <c r="AI77" s="4"/>
       <c r="AJ77" s="4"/>
     </row>
-    <row r="78" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -4542,7 +4635,7 @@
       <c r="AI78" s="4"/>
       <c r="AJ78" s="4"/>
     </row>
-    <row r="79" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -4580,7 +4673,7 @@
       <c r="AI79" s="4"/>
       <c r="AJ79" s="4"/>
     </row>
-    <row r="80" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -4618,7 +4711,7 @@
       <c r="AI80" s="4"/>
       <c r="AJ80" s="4"/>
     </row>
-    <row r="81" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -4656,7 +4749,7 @@
       <c r="AI81" s="4"/>
       <c r="AJ81" s="4"/>
     </row>
-    <row r="82" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -4694,7 +4787,7 @@
       <c r="AI82" s="4"/>
       <c r="AJ82" s="4"/>
     </row>
-    <row r="83" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -4732,7 +4825,7 @@
       <c r="AI83" s="4"/>
       <c r="AJ83" s="4"/>
     </row>
-    <row r="84" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -4770,7 +4863,7 @@
       <c r="AI84" s="4"/>
       <c r="AJ84" s="4"/>
     </row>
-    <row r="85" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -4808,7 +4901,7 @@
       <c r="AI85" s="4"/>
       <c r="AJ85" s="4"/>
     </row>
-    <row r="86" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4846,7 +4939,7 @@
       <c r="AI86" s="4"/>
       <c r="AJ86" s="4"/>
     </row>
-    <row r="87" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4884,7 +4977,7 @@
       <c r="AI87" s="4"/>
       <c r="AJ87" s="4"/>
     </row>
-    <row r="88" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4922,7 +5015,7 @@
       <c r="AI88" s="4"/>
       <c r="AJ88" s="4"/>
     </row>
-    <row r="89" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4960,7 +5053,7 @@
       <c r="AI89" s="4"/>
       <c r="AJ89" s="4"/>
     </row>
-    <row r="90" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4998,7 +5091,7 @@
       <c r="AI90" s="4"/>
       <c r="AJ90" s="4"/>
     </row>
-    <row r="91" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -5036,7 +5129,7 @@
       <c r="AI91" s="4"/>
       <c r="AJ91" s="4"/>
     </row>
-    <row r="92" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5074,7 +5167,7 @@
       <c r="AI92" s="4"/>
       <c r="AJ92" s="4"/>
     </row>
-    <row r="93" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5112,7 +5205,7 @@
       <c r="AI93" s="4"/>
       <c r="AJ93" s="4"/>
     </row>
-    <row r="94" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -5150,7 +5243,7 @@
       <c r="AI94" s="4"/>
       <c r="AJ94" s="4"/>
     </row>
-    <row r="95" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -5188,7 +5281,7 @@
       <c r="AI95" s="4"/>
       <c r="AJ95" s="4"/>
     </row>
-    <row r="96" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -5226,7 +5319,7 @@
       <c r="AI96" s="4"/>
       <c r="AJ96" s="4"/>
     </row>
-    <row r="97" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -5264,7 +5357,7 @@
       <c r="AI97" s="4"/>
       <c r="AJ97" s="4"/>
     </row>
-    <row r="98" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -5302,7 +5395,7 @@
       <c r="AI98" s="4"/>
       <c r="AJ98" s="4"/>
     </row>
-    <row r="99" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -5340,7 +5433,7 @@
       <c r="AI99" s="4"/>
       <c r="AJ99" s="4"/>
     </row>
-    <row r="100" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -5378,7 +5471,7 @@
       <c r="AI100" s="4"/>
       <c r="AJ100" s="4"/>
     </row>
-    <row r="101" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5416,7 +5509,7 @@
       <c r="AI101" s="4"/>
       <c r="AJ101" s="4"/>
     </row>
-    <row r="102" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -5454,7 +5547,7 @@
       <c r="AI102" s="4"/>
       <c r="AJ102" s="4"/>
     </row>
-    <row r="103" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -5492,7 +5585,7 @@
       <c r="AI103" s="4"/>
       <c r="AJ103" s="4"/>
     </row>
-    <row r="104" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -5530,7 +5623,7 @@
       <c r="AI104" s="4"/>
       <c r="AJ104" s="4"/>
     </row>
-    <row r="105" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -5568,7 +5661,7 @@
       <c r="AI105" s="4"/>
       <c r="AJ105" s="4"/>
     </row>
-    <row r="106" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -5606,7 +5699,7 @@
       <c r="AI106" s="4"/>
       <c r="AJ106" s="4"/>
     </row>
-    <row r="107" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -5644,7 +5737,7 @@
       <c r="AI107" s="4"/>
       <c r="AJ107" s="4"/>
     </row>
-    <row r="108" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5682,7 +5775,7 @@
       <c r="AI108" s="4"/>
       <c r="AJ108" s="4"/>
     </row>
-    <row r="109" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -5720,7 +5813,7 @@
       <c r="AI109" s="4"/>
       <c r="AJ109" s="4"/>
     </row>
-    <row r="110" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -5758,7 +5851,7 @@
       <c r="AI110" s="4"/>
       <c r="AJ110" s="4"/>
     </row>
-    <row r="111" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5796,7 +5889,7 @@
       <c r="AI111" s="4"/>
       <c r="AJ111" s="4"/>
     </row>
-    <row r="112" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -5834,7 +5927,7 @@
       <c r="AI112" s="4"/>
       <c r="AJ112" s="4"/>
     </row>
-    <row r="113" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -5872,7 +5965,7 @@
       <c r="AI113" s="4"/>
       <c r="AJ113" s="4"/>
     </row>
-    <row r="114" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -5910,7 +6003,7 @@
       <c r="AI114" s="4"/>
       <c r="AJ114" s="4"/>
     </row>
-    <row r="115" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -5948,7 +6041,7 @@
       <c r="AI115" s="4"/>
       <c r="AJ115" s="4"/>
     </row>
-    <row r="116" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -5986,7 +6079,7 @@
       <c r="AI116" s="4"/>
       <c r="AJ116" s="4"/>
     </row>
-    <row r="117" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6024,7 +6117,7 @@
       <c r="AI117" s="4"/>
       <c r="AJ117" s="4"/>
     </row>
-    <row r="118" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6062,7 +6155,7 @@
       <c r="AI118" s="4"/>
       <c r="AJ118" s="4"/>
     </row>
-    <row r="119" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6100,7 +6193,7 @@
       <c r="AI119" s="4"/>
       <c r="AJ119" s="4"/>
     </row>
-    <row r="120" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6138,7 +6231,7 @@
       <c r="AI120" s="4"/>
       <c r="AJ120" s="4"/>
     </row>
-    <row r="121" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6176,7 +6269,7 @@
       <c r="AI121" s="4"/>
       <c r="AJ121" s="4"/>
     </row>
-    <row r="122" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6214,7 +6307,7 @@
       <c r="AI122" s="4"/>
       <c r="AJ122" s="4"/>
     </row>
-    <row r="123" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6252,7 +6345,7 @@
       <c r="AI123" s="4"/>
       <c r="AJ123" s="4"/>
     </row>
-    <row r="124" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6290,7 +6383,7 @@
       <c r="AI124" s="4"/>
       <c r="AJ124" s="4"/>
     </row>
-    <row r="125" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6328,7 +6421,7 @@
       <c r="AI125" s="4"/>
       <c r="AJ125" s="4"/>
     </row>
-    <row r="126" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -6366,7 +6459,7 @@
       <c r="AI126" s="4"/>
       <c r="AJ126" s="4"/>
     </row>
-    <row r="127" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -6404,7 +6497,7 @@
       <c r="AI127" s="4"/>
       <c r="AJ127" s="4"/>
     </row>
-    <row r="128" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -6442,7 +6535,7 @@
       <c r="AI128" s="4"/>
       <c r="AJ128" s="4"/>
     </row>
-    <row r="129" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -6480,7 +6573,7 @@
       <c r="AI129" s="4"/>
       <c r="AJ129" s="4"/>
     </row>
-    <row r="130" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -6518,7 +6611,7 @@
       <c r="AI130" s="4"/>
       <c r="AJ130" s="4"/>
     </row>
-    <row r="131" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6556,7 +6649,7 @@
       <c r="AI131" s="4"/>
       <c r="AJ131" s="4"/>
     </row>
-    <row r="132" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -6594,7 +6687,7 @@
       <c r="AI132" s="4"/>
       <c r="AJ132" s="4"/>
     </row>
-    <row r="133" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -6632,7 +6725,7 @@
       <c r="AI133" s="4"/>
       <c r="AJ133" s="4"/>
     </row>
-    <row r="134" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6670,7 +6763,7 @@
       <c r="AI134" s="4"/>
       <c r="AJ134" s="4"/>
     </row>
-    <row r="135" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6708,7 +6801,7 @@
       <c r="AI135" s="4"/>
       <c r="AJ135" s="4"/>
     </row>
-    <row r="136" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6746,7 +6839,7 @@
       <c r="AI136" s="4"/>
       <c r="AJ136" s="4"/>
     </row>
-    <row r="137" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6784,7 +6877,7 @@
       <c r="AI137" s="4"/>
       <c r="AJ137" s="4"/>
     </row>
-    <row r="138" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6822,7 +6915,7 @@
       <c r="AI138" s="4"/>
       <c r="AJ138" s="4"/>
     </row>
-    <row r="139" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6860,7 +6953,7 @@
       <c r="AI139" s="4"/>
       <c r="AJ139" s="4"/>
     </row>
-    <row r="140" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -6898,7 +6991,7 @@
       <c r="AI140" s="4"/>
       <c r="AJ140" s="4"/>
     </row>
-    <row r="141" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6936,7 +7029,7 @@
       <c r="AI141" s="4"/>
       <c r="AJ141" s="4"/>
     </row>
-    <row r="142" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -6974,7 +7067,7 @@
       <c r="AI142" s="4"/>
       <c r="AJ142" s="4"/>
     </row>
-    <row r="143" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -7012,7 +7105,7 @@
       <c r="AI143" s="4"/>
       <c r="AJ143" s="4"/>
     </row>
-    <row r="144" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -7050,7 +7143,7 @@
       <c r="AI144" s="4"/>
       <c r="AJ144" s="4"/>
     </row>
-    <row r="145" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -7088,7 +7181,7 @@
       <c r="AI145" s="4"/>
       <c r="AJ145" s="4"/>
     </row>
-    <row r="146" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -7126,7 +7219,7 @@
       <c r="AI146" s="4"/>
       <c r="AJ146" s="4"/>
     </row>
-    <row r="147" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -7164,7 +7257,7 @@
       <c r="AI147" s="4"/>
       <c r="AJ147" s="4"/>
     </row>
-    <row r="148" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -7202,7 +7295,7 @@
       <c r="AI148" s="4"/>
       <c r="AJ148" s="4"/>
     </row>
-    <row r="149" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -7240,7 +7333,7 @@
       <c r="AI149" s="4"/>
       <c r="AJ149" s="4"/>
     </row>
-    <row r="150" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -7278,7 +7371,7 @@
       <c r="AI150" s="4"/>
       <c r="AJ150" s="4"/>
     </row>
-    <row r="151" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -7316,7 +7409,7 @@
       <c r="AI151" s="4"/>
       <c r="AJ151" s="4"/>
     </row>
-    <row r="152" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -7354,7 +7447,7 @@
       <c r="AI152" s="4"/>
       <c r="AJ152" s="4"/>
     </row>
-    <row r="153" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -7392,7 +7485,7 @@
       <c r="AI153" s="4"/>
       <c r="AJ153" s="4"/>
     </row>
-    <row r="154" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -7430,7 +7523,7 @@
       <c r="AI154" s="4"/>
       <c r="AJ154" s="4"/>
     </row>
-    <row r="155" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -7468,7 +7561,7 @@
       <c r="AI155" s="4"/>
       <c r="AJ155" s="4"/>
     </row>
-    <row r="156" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -7506,7 +7599,7 @@
       <c r="AI156" s="4"/>
       <c r="AJ156" s="4"/>
     </row>
-    <row r="157" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -7544,7 +7637,7 @@
       <c r="AI157" s="4"/>
       <c r="AJ157" s="4"/>
     </row>
-    <row r="158" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -7582,7 +7675,7 @@
       <c r="AI158" s="4"/>
       <c r="AJ158" s="4"/>
     </row>
-    <row r="159" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7620,7 +7713,7 @@
       <c r="AI159" s="4"/>
       <c r="AJ159" s="4"/>
     </row>
-    <row r="160" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -7658,7 +7751,7 @@
       <c r="AI160" s="4"/>
       <c r="AJ160" s="4"/>
     </row>
-    <row r="161" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7696,7 +7789,7 @@
       <c r="AI161" s="4"/>
       <c r="AJ161" s="4"/>
     </row>
-    <row r="162" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -7734,7 +7827,7 @@
       <c r="AI162" s="4"/>
       <c r="AJ162" s="4"/>
     </row>
-    <row r="163" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7772,7 +7865,7 @@
       <c r="AI163" s="4"/>
       <c r="AJ163" s="4"/>
     </row>
-    <row r="164" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7810,7 +7903,7 @@
       <c r="AI164" s="4"/>
       <c r="AJ164" s="4"/>
     </row>
-    <row r="165" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7848,7 +7941,7 @@
       <c r="AI165" s="4"/>
       <c r="AJ165" s="4"/>
     </row>
-    <row r="166" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7886,7 +7979,7 @@
       <c r="AI166" s="4"/>
       <c r="AJ166" s="4"/>
     </row>
-    <row r="167" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -7924,7 +8017,7 @@
       <c r="AI167" s="4"/>
       <c r="AJ167" s="4"/>
     </row>
-    <row r="168" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -7962,7 +8055,7 @@
       <c r="AI168" s="4"/>
       <c r="AJ168" s="4"/>
     </row>
-    <row r="169" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -8000,7 +8093,7 @@
       <c r="AI169" s="4"/>
       <c r="AJ169" s="4"/>
     </row>
-    <row r="170" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -8038,7 +8131,7 @@
       <c r="AI170" s="4"/>
       <c r="AJ170" s="4"/>
     </row>
-    <row r="171" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -8076,7 +8169,7 @@
       <c r="AI171" s="4"/>
       <c r="AJ171" s="4"/>
     </row>
-    <row r="172" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -8114,7 +8207,7 @@
       <c r="AI172" s="4"/>
       <c r="AJ172" s="4"/>
     </row>
-    <row r="173" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -8152,7 +8245,7 @@
       <c r="AI173" s="4"/>
       <c r="AJ173" s="4"/>
     </row>
-    <row r="174" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -8190,7 +8283,7 @@
       <c r="AI174" s="4"/>
       <c r="AJ174" s="4"/>
     </row>
-    <row r="175" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -8228,7 +8321,7 @@
       <c r="AI175" s="4"/>
       <c r="AJ175" s="4"/>
     </row>
-    <row r="176" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -8266,7 +8359,7 @@
       <c r="AI176" s="4"/>
       <c r="AJ176" s="4"/>
     </row>
-    <row r="177" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -8304,7 +8397,7 @@
       <c r="AI177" s="4"/>
       <c r="AJ177" s="4"/>
     </row>
-    <row r="178" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -8342,7 +8435,7 @@
       <c r="AI178" s="4"/>
       <c r="AJ178" s="4"/>
     </row>
-    <row r="179" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -8380,7 +8473,7 @@
       <c r="AI179" s="4"/>
       <c r="AJ179" s="4"/>
     </row>
-    <row r="180" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -8418,7 +8511,7 @@
       <c r="AI180" s="4"/>
       <c r="AJ180" s="4"/>
     </row>
-    <row r="181" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -8456,7 +8549,7 @@
       <c r="AI181" s="4"/>
       <c r="AJ181" s="4"/>
     </row>
-    <row r="182" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -8494,7 +8587,7 @@
       <c r="AI182" s="4"/>
       <c r="AJ182" s="4"/>
     </row>
-    <row r="183" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -8532,7 +8625,7 @@
       <c r="AI183" s="4"/>
       <c r="AJ183" s="4"/>
     </row>
-    <row r="184" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -8570,7 +8663,7 @@
       <c r="AI184" s="4"/>
       <c r="AJ184" s="4"/>
     </row>
-    <row r="185" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -8608,7 +8701,7 @@
       <c r="AI185" s="4"/>
       <c r="AJ185" s="4"/>
     </row>
-    <row r="186" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -8646,7 +8739,7 @@
       <c r="AI186" s="4"/>
       <c r="AJ186" s="4"/>
     </row>
-    <row r="187" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -8684,7 +8777,7 @@
       <c r="AI187" s="4"/>
       <c r="AJ187" s="4"/>
     </row>
-    <row r="188" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -8722,7 +8815,7 @@
       <c r="AI188" s="4"/>
       <c r="AJ188" s="4"/>
     </row>
-    <row r="189" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -8760,7 +8853,7 @@
       <c r="AI189" s="4"/>
       <c r="AJ189" s="4"/>
     </row>
-    <row r="190" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -8798,7 +8891,7 @@
       <c r="AI190" s="4"/>
       <c r="AJ190" s="4"/>
     </row>
-    <row r="191" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -8836,7 +8929,7 @@
       <c r="AI191" s="4"/>
       <c r="AJ191" s="4"/>
     </row>
-    <row r="192" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8874,7 +8967,7 @@
       <c r="AI192" s="4"/>
       <c r="AJ192" s="4"/>
     </row>
-    <row r="193" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8912,7 +9005,7 @@
       <c r="AI193" s="4"/>
       <c r="AJ193" s="4"/>
     </row>
-    <row r="194" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -8950,7 +9043,7 @@
       <c r="AI194" s="4"/>
       <c r="AJ194" s="4"/>
     </row>
-    <row r="195" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -8988,7 +9081,7 @@
       <c r="AI195" s="4"/>
       <c r="AJ195" s="4"/>
     </row>
-    <row r="196" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -9026,7 +9119,7 @@
       <c r="AI196" s="4"/>
       <c r="AJ196" s="4"/>
     </row>
-    <row r="197" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -9064,7 +9157,7 @@
       <c r="AI197" s="4"/>
       <c r="AJ197" s="4"/>
     </row>
-    <row r="198" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -9102,7 +9195,7 @@
       <c r="AI198" s="4"/>
       <c r="AJ198" s="4"/>
     </row>
-    <row r="199" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -9140,7 +9233,7 @@
       <c r="AI199" s="4"/>
       <c r="AJ199" s="4"/>
     </row>
-    <row r="200" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -9178,7 +9271,7 @@
       <c r="AI200" s="4"/>
       <c r="AJ200" s="4"/>
     </row>
-    <row r="201" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -9216,7 +9309,7 @@
       <c r="AI201" s="4"/>
       <c r="AJ201" s="4"/>
     </row>
-    <row r="202" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -9254,7 +9347,7 @@
       <c r="AI202" s="4"/>
       <c r="AJ202" s="4"/>
     </row>
-    <row r="203" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -9292,7 +9385,7 @@
       <c r="AI203" s="4"/>
       <c r="AJ203" s="4"/>
     </row>
-    <row r="204" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -9330,7 +9423,7 @@
       <c r="AI204" s="4"/>
       <c r="AJ204" s="4"/>
     </row>
-    <row r="205" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -9368,7 +9461,7 @@
       <c r="AI205" s="4"/>
       <c r="AJ205" s="4"/>
     </row>
-    <row r="206" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -9406,7 +9499,7 @@
       <c r="AI206" s="4"/>
       <c r="AJ206" s="4"/>
     </row>
-    <row r="207" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -9444,7 +9537,7 @@
       <c r="AI207" s="4"/>
       <c r="AJ207" s="4"/>
     </row>
-    <row r="208" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -9482,7 +9575,7 @@
       <c r="AI208" s="4"/>
       <c r="AJ208" s="4"/>
     </row>
-    <row r="209" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -9520,7 +9613,7 @@
       <c r="AI209" s="4"/>
       <c r="AJ209" s="4"/>
     </row>
-    <row r="210" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -9558,7 +9651,7 @@
       <c r="AI210" s="4"/>
       <c r="AJ210" s="4"/>
     </row>
-    <row r="211" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -9596,7 +9689,7 @@
       <c r="AI211" s="4"/>
       <c r="AJ211" s="4"/>
     </row>
-    <row r="212" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -9634,7 +9727,7 @@
       <c r="AI212" s="4"/>
       <c r="AJ212" s="4"/>
     </row>
-    <row r="213" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -9672,7 +9765,7 @@
       <c r="AI213" s="4"/>
       <c r="AJ213" s="4"/>
     </row>
-    <row r="214" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -9710,7 +9803,7 @@
       <c r="AI214" s="4"/>
       <c r="AJ214" s="4"/>
     </row>
-    <row r="215" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -9748,7 +9841,7 @@
       <c r="AI215" s="4"/>
       <c r="AJ215" s="4"/>
     </row>
-    <row r="216" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -9786,7 +9879,7 @@
       <c r="AI216" s="4"/>
       <c r="AJ216" s="4"/>
     </row>
-    <row r="217" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -9824,7 +9917,7 @@
       <c r="AI217" s="4"/>
       <c r="AJ217" s="4"/>
     </row>
-    <row r="218" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -9862,7 +9955,7 @@
       <c r="AI218" s="4"/>
       <c r="AJ218" s="4"/>
     </row>
-    <row r="219" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -9900,7 +9993,7 @@
       <c r="AI219" s="4"/>
       <c r="AJ219" s="4"/>
     </row>
-    <row r="220" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -9938,7 +10031,7 @@
       <c r="AI220" s="4"/>
       <c r="AJ220" s="4"/>
     </row>
-    <row r="221" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -9976,7 +10069,7 @@
       <c r="AI221" s="4"/>
       <c r="AJ221" s="4"/>
     </row>
-    <row r="222" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -10014,7 +10107,7 @@
       <c r="AI222" s="4"/>
       <c r="AJ222" s="4"/>
     </row>
-    <row r="223" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -10052,7 +10145,7 @@
       <c r="AI223" s="4"/>
       <c r="AJ223" s="4"/>
     </row>
-    <row r="224" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -10090,7 +10183,7 @@
       <c r="AI224" s="4"/>
       <c r="AJ224" s="4"/>
     </row>
-    <row r="225" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -10128,7 +10221,7 @@
       <c r="AI225" s="4"/>
       <c r="AJ225" s="4"/>
     </row>
-    <row r="226" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -10166,7 +10259,7 @@
       <c r="AI226" s="4"/>
       <c r="AJ226" s="4"/>
     </row>
-    <row r="227" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -10204,7 +10297,7 @@
       <c r="AI227" s="4"/>
       <c r="AJ227" s="4"/>
     </row>
-    <row r="228" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -10242,7 +10335,7 @@
       <c r="AI228" s="4"/>
       <c r="AJ228" s="4"/>
     </row>
-    <row r="229" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -10280,7 +10373,7 @@
       <c r="AI229" s="4"/>
       <c r="AJ229" s="4"/>
     </row>
-    <row r="230" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -10318,7 +10411,7 @@
       <c r="AI230" s="4"/>
       <c r="AJ230" s="4"/>
     </row>
-    <row r="231" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -10356,7 +10449,7 @@
       <c r="AI231" s="4"/>
       <c r="AJ231" s="4"/>
     </row>
-    <row r="232" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -10394,7 +10487,7 @@
       <c r="AI232" s="4"/>
       <c r="AJ232" s="4"/>
     </row>
-    <row r="233" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -10432,7 +10525,7 @@
       <c r="AI233" s="4"/>
       <c r="AJ233" s="4"/>
     </row>
-    <row r="234" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -10470,7 +10563,7 @@
       <c r="AI234" s="4"/>
       <c r="AJ234" s="4"/>
     </row>
-    <row r="235" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -10508,7 +10601,7 @@
       <c r="AI235" s="4"/>
       <c r="AJ235" s="4"/>
     </row>
-    <row r="236" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -10546,7 +10639,7 @@
       <c r="AI236" s="4"/>
       <c r="AJ236" s="4"/>
     </row>
-    <row r="237" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -10584,7 +10677,7 @@
       <c r="AI237" s="4"/>
       <c r="AJ237" s="4"/>
     </row>
-    <row r="238" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -10622,7 +10715,7 @@
       <c r="AI238" s="4"/>
       <c r="AJ238" s="4"/>
     </row>
-    <row r="239" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -10660,7 +10753,7 @@
       <c r="AI239" s="4"/>
       <c r="AJ239" s="4"/>
     </row>
-    <row r="240" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -10698,7 +10791,7 @@
       <c r="AI240" s="4"/>
       <c r="AJ240" s="4"/>
     </row>
-    <row r="241" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -10736,7 +10829,7 @@
       <c r="AI241" s="4"/>
       <c r="AJ241" s="4"/>
     </row>
-    <row r="242" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -10774,7 +10867,7 @@
       <c r="AI242" s="4"/>
       <c r="AJ242" s="4"/>
     </row>
-    <row r="243" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -10812,7 +10905,7 @@
       <c r="AI243" s="4"/>
       <c r="AJ243" s="4"/>
     </row>
-    <row r="244" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -10850,7 +10943,7 @@
       <c r="AI244" s="4"/>
       <c r="AJ244" s="4"/>
     </row>
-    <row r="245" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -10888,7 +10981,7 @@
       <c r="AI245" s="4"/>
       <c r="AJ245" s="4"/>
     </row>
-    <row r="246" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -10926,7 +11019,7 @@
       <c r="AI246" s="4"/>
       <c r="AJ246" s="4"/>
     </row>
-    <row r="247" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -10964,7 +11057,7 @@
       <c r="AI247" s="4"/>
       <c r="AJ247" s="4"/>
     </row>
-    <row r="248" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -11002,7 +11095,7 @@
       <c r="AI248" s="4"/>
       <c r="AJ248" s="4"/>
     </row>
-    <row r="249" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -11040,7 +11133,7 @@
       <c r="AI249" s="4"/>
       <c r="AJ249" s="4"/>
     </row>
-    <row r="250" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -11078,7 +11171,7 @@
       <c r="AI250" s="4"/>
       <c r="AJ250" s="4"/>
     </row>
-    <row r="251" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -11116,7 +11209,7 @@
       <c r="AI251" s="4"/>
       <c r="AJ251" s="4"/>
     </row>
-    <row r="252" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -11154,7 +11247,7 @@
       <c r="AI252" s="4"/>
       <c r="AJ252" s="4"/>
     </row>
-    <row r="253" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -11192,7 +11285,7 @@
       <c r="AI253" s="4"/>
       <c r="AJ253" s="4"/>
     </row>
-    <row r="254" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -11230,7 +11323,7 @@
       <c r="AI254" s="4"/>
       <c r="AJ254" s="4"/>
     </row>
-    <row r="255" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -11268,7 +11361,7 @@
       <c r="AI255" s="4"/>
       <c r="AJ255" s="4"/>
     </row>
-    <row r="256" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -11306,7 +11399,7 @@
       <c r="AI256" s="4"/>
       <c r="AJ256" s="4"/>
     </row>
-    <row r="257" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -11344,7 +11437,7 @@
       <c r="AI257" s="4"/>
       <c r="AJ257" s="4"/>
     </row>
-    <row r="258" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -11382,7 +11475,7 @@
       <c r="AI258" s="4"/>
       <c r="AJ258" s="4"/>
     </row>
-    <row r="259" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -11420,7 +11513,7 @@
       <c r="AI259" s="4"/>
       <c r="AJ259" s="4"/>
     </row>
-    <row r="260" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -11458,7 +11551,7 @@
       <c r="AI260" s="4"/>
       <c r="AJ260" s="4"/>
     </row>
-    <row r="261" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -11496,7 +11589,7 @@
       <c r="AI261" s="4"/>
       <c r="AJ261" s="4"/>
     </row>
-    <row r="262" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -11534,7 +11627,7 @@
       <c r="AI262" s="4"/>
       <c r="AJ262" s="4"/>
     </row>
-    <row r="263" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -11572,7 +11665,7 @@
       <c r="AI263" s="4"/>
       <c r="AJ263" s="4"/>
     </row>
-    <row r="264" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -11610,7 +11703,7 @@
       <c r="AI264" s="4"/>
       <c r="AJ264" s="4"/>
     </row>
-    <row r="265" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -11648,7 +11741,7 @@
       <c r="AI265" s="4"/>
       <c r="AJ265" s="4"/>
     </row>
-    <row r="266" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -11686,7 +11779,7 @@
       <c r="AI266" s="4"/>
       <c r="AJ266" s="4"/>
     </row>
-    <row r="267" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -11724,7 +11817,7 @@
       <c r="AI267" s="4"/>
       <c r="AJ267" s="4"/>
     </row>
-    <row r="268" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -11762,7 +11855,7 @@
       <c r="AI268" s="4"/>
       <c r="AJ268" s="4"/>
     </row>
-    <row r="269" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -11800,7 +11893,7 @@
       <c r="AI269" s="4"/>
       <c r="AJ269" s="4"/>
     </row>
-    <row r="270" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -11838,7 +11931,7 @@
       <c r="AI270" s="4"/>
       <c r="AJ270" s="4"/>
     </row>
-    <row r="271" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -11876,7 +11969,7 @@
       <c r="AI271" s="4"/>
       <c r="AJ271" s="4"/>
     </row>
-    <row r="272" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -11914,7 +12007,7 @@
       <c r="AI272" s="4"/>
       <c r="AJ272" s="4"/>
     </row>
-    <row r="273" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -11952,7 +12045,7 @@
       <c r="AI273" s="4"/>
       <c r="AJ273" s="4"/>
     </row>
-    <row r="274" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -11990,7 +12083,7 @@
       <c r="AI274" s="4"/>
       <c r="AJ274" s="4"/>
     </row>
-    <row r="275" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -12028,7 +12121,7 @@
       <c r="AI275" s="4"/>
       <c r="AJ275" s="4"/>
     </row>
-    <row r="276" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -12066,7 +12159,7 @@
       <c r="AI276" s="4"/>
       <c r="AJ276" s="4"/>
     </row>
-    <row r="277" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -12104,7 +12197,7 @@
       <c r="AI277" s="4"/>
       <c r="AJ277" s="4"/>
     </row>
-    <row r="278" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -12142,7 +12235,7 @@
       <c r="AI278" s="4"/>
       <c r="AJ278" s="4"/>
     </row>
-    <row r="279" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -12180,7 +12273,7 @@
       <c r="AI279" s="4"/>
       <c r="AJ279" s="4"/>
     </row>
-    <row r="280" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -12218,7 +12311,7 @@
       <c r="AI280" s="4"/>
       <c r="AJ280" s="4"/>
     </row>
-    <row r="281" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -12256,7 +12349,7 @@
       <c r="AI281" s="4"/>
       <c r="AJ281" s="4"/>
     </row>
-    <row r="282" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -12294,7 +12387,7 @@
       <c r="AI282" s="4"/>
       <c r="AJ282" s="4"/>
     </row>
-    <row r="283" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -12332,7 +12425,7 @@
       <c r="AI283" s="4"/>
       <c r="AJ283" s="4"/>
     </row>
-    <row r="284" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -12370,7 +12463,7 @@
       <c r="AI284" s="4"/>
       <c r="AJ284" s="4"/>
     </row>
-    <row r="285" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -12408,7 +12501,7 @@
       <c r="AI285" s="4"/>
       <c r="AJ285" s="4"/>
     </row>
-    <row r="286" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -12446,7 +12539,7 @@
       <c r="AI286" s="4"/>
       <c r="AJ286" s="4"/>
     </row>
-    <row r="287" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -12484,7 +12577,7 @@
       <c r="AI287" s="4"/>
       <c r="AJ287" s="4"/>
     </row>
-    <row r="288" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -12522,7 +12615,7 @@
       <c r="AI288" s="4"/>
       <c r="AJ288" s="4"/>
     </row>
-    <row r="289" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -12560,7 +12653,7 @@
       <c r="AI289" s="4"/>
       <c r="AJ289" s="4"/>
     </row>
-    <row r="290" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -12598,7 +12691,7 @@
       <c r="AI290" s="4"/>
       <c r="AJ290" s="4"/>
     </row>
-    <row r="291" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -12636,7 +12729,7 @@
       <c r="AI291" s="4"/>
       <c r="AJ291" s="4"/>
     </row>
-    <row r="292" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -12674,7 +12767,7 @@
       <c r="AI292" s="4"/>
       <c r="AJ292" s="4"/>
     </row>
-    <row r="293" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -12712,7 +12805,7 @@
       <c r="AI293" s="4"/>
       <c r="AJ293" s="4"/>
     </row>
-    <row r="294" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -12750,7 +12843,7 @@
       <c r="AI294" s="4"/>
       <c r="AJ294" s="4"/>
     </row>
-    <row r="295" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -12788,7 +12881,7 @@
       <c r="AI295" s="4"/>
       <c r="AJ295" s="4"/>
     </row>
-    <row r="296" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -12826,7 +12919,7 @@
       <c r="AI296" s="4"/>
       <c r="AJ296" s="4"/>
     </row>
-    <row r="297" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -12864,7 +12957,7 @@
       <c r="AI297" s="4"/>
       <c r="AJ297" s="4"/>
     </row>
-    <row r="298" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -12902,7 +12995,7 @@
       <c r="AI298" s="4"/>
       <c r="AJ298" s="4"/>
     </row>
-    <row r="299" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -12940,7 +13033,7 @@
       <c r="AI299" s="4"/>
       <c r="AJ299" s="4"/>
     </row>
-    <row r="300" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -12978,7 +13071,7 @@
       <c r="AI300" s="4"/>
       <c r="AJ300" s="4"/>
     </row>
-    <row r="301" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -13016,7 +13109,7 @@
       <c r="AI301" s="4"/>
       <c r="AJ301" s="4"/>
     </row>
-    <row r="302" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -13054,7 +13147,7 @@
       <c r="AI302" s="4"/>
       <c r="AJ302" s="4"/>
     </row>
-    <row r="303" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -13092,7 +13185,7 @@
       <c r="AI303" s="4"/>
       <c r="AJ303" s="4"/>
     </row>
-    <row r="304" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -13130,7 +13223,7 @@
       <c r="AI304" s="4"/>
       <c r="AJ304" s="4"/>
     </row>
-    <row r="305" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -13168,7 +13261,7 @@
       <c r="AI305" s="4"/>
       <c r="AJ305" s="4"/>
     </row>
-    <row r="306" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -13206,7 +13299,7 @@
       <c r="AI306" s="4"/>
       <c r="AJ306" s="4"/>
     </row>
-    <row r="307" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -13244,7 +13337,7 @@
       <c r="AI307" s="4"/>
       <c r="AJ307" s="4"/>
     </row>
-    <row r="308" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -13282,7 +13375,7 @@
       <c r="AI308" s="4"/>
       <c r="AJ308" s="4"/>
     </row>
-    <row r="309" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -13320,7 +13413,7 @@
       <c r="AI309" s="4"/>
       <c r="AJ309" s="4"/>
     </row>
-    <row r="310" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -13358,7 +13451,7 @@
       <c r="AI310" s="4"/>
       <c r="AJ310" s="4"/>
     </row>
-    <row r="311" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -13396,7 +13489,7 @@
       <c r="AI311" s="4"/>
       <c r="AJ311" s="4"/>
     </row>
-    <row r="312" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -13434,7 +13527,7 @@
       <c r="AI312" s="4"/>
       <c r="AJ312" s="4"/>
     </row>
-    <row r="313" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -13472,7 +13565,7 @@
       <c r="AI313" s="4"/>
       <c r="AJ313" s="4"/>
     </row>
-    <row r="314" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -13510,7 +13603,7 @@
       <c r="AI314" s="4"/>
       <c r="AJ314" s="4"/>
     </row>
-    <row r="315" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -13548,7 +13641,7 @@
       <c r="AI315" s="4"/>
       <c r="AJ315" s="4"/>
     </row>
-    <row r="316" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -13586,7 +13679,7 @@
       <c r="AI316" s="4"/>
       <c r="AJ316" s="4"/>
     </row>
-    <row r="317" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -13624,7 +13717,7 @@
       <c r="AI317" s="4"/>
       <c r="AJ317" s="4"/>
     </row>
-    <row r="318" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -13662,7 +13755,7 @@
       <c r="AI318" s="4"/>
       <c r="AJ318" s="4"/>
     </row>
-    <row r="319" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -13700,7 +13793,7 @@
       <c r="AI319" s="4"/>
       <c r="AJ319" s="4"/>
     </row>
-    <row r="320" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -13738,7 +13831,7 @@
       <c r="AI320" s="4"/>
       <c r="AJ320" s="4"/>
     </row>
-    <row r="321" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -13776,7 +13869,7 @@
       <c r="AI321" s="4"/>
       <c r="AJ321" s="4"/>
     </row>
-    <row r="322" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -13814,7 +13907,7 @@
       <c r="AI322" s="4"/>
       <c r="AJ322" s="4"/>
     </row>
-    <row r="323" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -13852,7 +13945,7 @@
       <c r="AI323" s="4"/>
       <c r="AJ323" s="4"/>
     </row>
-    <row r="324" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -13890,7 +13983,7 @@
       <c r="AI324" s="4"/>
       <c r="AJ324" s="4"/>
     </row>
-    <row r="325" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -13928,7 +14021,7 @@
       <c r="AI325" s="4"/>
       <c r="AJ325" s="4"/>
     </row>
-    <row r="326" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -13966,7 +14059,7 @@
       <c r="AI326" s="4"/>
       <c r="AJ326" s="4"/>
     </row>
-    <row r="327" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -14004,7 +14097,7 @@
       <c r="AI327" s="4"/>
       <c r="AJ327" s="4"/>
     </row>
-    <row r="328" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -14042,7 +14135,7 @@
       <c r="AI328" s="4"/>
       <c r="AJ328" s="4"/>
     </row>
-    <row r="329" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -14080,7 +14173,7 @@
       <c r="AI329" s="4"/>
       <c r="AJ329" s="4"/>
     </row>
-    <row r="330" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -14118,7 +14211,7 @@
       <c r="AI330" s="4"/>
       <c r="AJ330" s="4"/>
     </row>
-    <row r="331" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -14156,7 +14249,7 @@
       <c r="AI331" s="4"/>
       <c r="AJ331" s="4"/>
     </row>
-    <row r="332" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -14194,7 +14287,7 @@
       <c r="AI332" s="4"/>
       <c r="AJ332" s="4"/>
     </row>
-    <row r="333" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -14232,7 +14325,7 @@
       <c r="AI333" s="4"/>
       <c r="AJ333" s="4"/>
     </row>
-    <row r="334" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -14270,7 +14363,7 @@
       <c r="AI334" s="4"/>
       <c r="AJ334" s="4"/>
     </row>
-    <row r="335" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -14308,7 +14401,7 @@
       <c r="AI335" s="4"/>
       <c r="AJ335" s="4"/>
     </row>
-    <row r="336" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -14346,7 +14439,7 @@
       <c r="AI336" s="4"/>
       <c r="AJ336" s="4"/>
     </row>
-    <row r="337" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -14384,7 +14477,7 @@
       <c r="AI337" s="4"/>
       <c r="AJ337" s="4"/>
     </row>
-    <row r="338" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -14422,7 +14515,7 @@
       <c r="AI338" s="4"/>
       <c r="AJ338" s="4"/>
     </row>
-    <row r="339" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -14460,7 +14553,7 @@
       <c r="AI339" s="4"/>
       <c r="AJ339" s="4"/>
     </row>
-    <row r="340" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -14498,7 +14591,7 @@
       <c r="AI340" s="4"/>
       <c r="AJ340" s="4"/>
     </row>
-    <row r="341" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -14536,7 +14629,7 @@
       <c r="AI341" s="4"/>
       <c r="AJ341" s="4"/>
     </row>
-    <row r="342" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -14574,7 +14667,7 @@
       <c r="AI342" s="4"/>
       <c r="AJ342" s="4"/>
     </row>
-    <row r="343" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -14612,7 +14705,7 @@
       <c r="AI343" s="4"/>
       <c r="AJ343" s="4"/>
     </row>
-    <row r="344" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -14650,7 +14743,7 @@
       <c r="AI344" s="4"/>
       <c r="AJ344" s="4"/>
     </row>
-    <row r="345" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -14688,7 +14781,7 @@
       <c r="AI345" s="4"/>
       <c r="AJ345" s="4"/>
     </row>
-    <row r="346" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -14726,7 +14819,7 @@
       <c r="AI346" s="4"/>
       <c r="AJ346" s="4"/>
     </row>
-    <row r="347" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -14764,7 +14857,7 @@
       <c r="AI347" s="4"/>
       <c r="AJ347" s="4"/>
     </row>
-    <row r="348" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -14802,7 +14895,7 @@
       <c r="AI348" s="4"/>
       <c r="AJ348" s="4"/>
     </row>
-    <row r="349" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -14840,7 +14933,7 @@
       <c r="AI349" s="4"/>
       <c r="AJ349" s="4"/>
     </row>
-    <row r="350" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -14878,7 +14971,7 @@
       <c r="AI350" s="4"/>
       <c r="AJ350" s="4"/>
     </row>
-    <row r="351" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -14916,7 +15009,7 @@
       <c r="AI351" s="4"/>
       <c r="AJ351" s="4"/>
     </row>
-    <row r="352" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -14954,7 +15047,7 @@
       <c r="AI352" s="4"/>
       <c r="AJ352" s="4"/>
     </row>
-    <row r="353" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -14992,7 +15085,7 @@
       <c r="AI353" s="4"/>
       <c r="AJ353" s="4"/>
     </row>
-    <row r="354" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -15030,7 +15123,7 @@
       <c r="AI354" s="4"/>
       <c r="AJ354" s="4"/>
     </row>
-    <row r="355" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -15068,7 +15161,7 @@
       <c r="AI355" s="4"/>
       <c r="AJ355" s="4"/>
     </row>
-    <row r="356" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -15106,7 +15199,7 @@
       <c r="AI356" s="4"/>
       <c r="AJ356" s="4"/>
     </row>
-    <row r="357" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -15144,7 +15237,7 @@
       <c r="AI357" s="4"/>
       <c r="AJ357" s="4"/>
     </row>
-    <row r="358" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -15182,7 +15275,7 @@
       <c r="AI358" s="4"/>
       <c r="AJ358" s="4"/>
     </row>
-    <row r="359" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -15220,7 +15313,7 @@
       <c r="AI359" s="4"/>
       <c r="AJ359" s="4"/>
     </row>
-    <row r="360" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -15258,7 +15351,7 @@
       <c r="AI360" s="4"/>
       <c r="AJ360" s="4"/>
     </row>
-    <row r="361" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -15296,7 +15389,7 @@
       <c r="AI361" s="4"/>
       <c r="AJ361" s="4"/>
     </row>
-    <row r="362" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -15334,7 +15427,7 @@
       <c r="AI362" s="4"/>
       <c r="AJ362" s="4"/>
     </row>
-    <row r="363" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -15372,7 +15465,7 @@
       <c r="AI363" s="4"/>
       <c r="AJ363" s="4"/>
     </row>
-    <row r="364" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -15410,7 +15503,7 @@
       <c r="AI364" s="4"/>
       <c r="AJ364" s="4"/>
     </row>
-    <row r="365" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -15448,7 +15541,7 @@
       <c r="AI365" s="4"/>
       <c r="AJ365" s="4"/>
     </row>
-    <row r="366" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -15486,7 +15579,7 @@
       <c r="AI366" s="4"/>
       <c r="AJ366" s="4"/>
     </row>
-    <row r="367" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -15524,7 +15617,7 @@
       <c r="AI367" s="4"/>
       <c r="AJ367" s="4"/>
     </row>
-    <row r="368" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -15562,7 +15655,7 @@
       <c r="AI368" s="4"/>
       <c r="AJ368" s="4"/>
     </row>
-    <row r="369" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -15600,7 +15693,7 @@
       <c r="AI369" s="4"/>
       <c r="AJ369" s="4"/>
     </row>
-    <row r="370" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -15638,7 +15731,7 @@
       <c r="AI370" s="4"/>
       <c r="AJ370" s="4"/>
     </row>
-    <row r="371" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -15676,7 +15769,7 @@
       <c r="AI371" s="4"/>
       <c r="AJ371" s="4"/>
     </row>
-    <row r="372" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -15714,7 +15807,7 @@
       <c r="AI372" s="4"/>
       <c r="AJ372" s="4"/>
     </row>
-    <row r="373" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -15752,7 +15845,7 @@
       <c r="AI373" s="4"/>
       <c r="AJ373" s="4"/>
     </row>
-    <row r="374" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -15790,7 +15883,7 @@
       <c r="AI374" s="4"/>
       <c r="AJ374" s="4"/>
     </row>
-    <row r="375" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -15828,7 +15921,7 @@
       <c r="AI375" s="4"/>
       <c r="AJ375" s="4"/>
     </row>
-    <row r="376" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -15866,7 +15959,7 @@
       <c r="AI376" s="4"/>
       <c r="AJ376" s="4"/>
     </row>
-    <row r="377" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -15904,7 +15997,7 @@
       <c r="AI377" s="4"/>
       <c r="AJ377" s="4"/>
     </row>
-    <row r="378" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -15942,7 +16035,7 @@
       <c r="AI378" s="4"/>
       <c r="AJ378" s="4"/>
     </row>
-    <row r="379" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -15980,7 +16073,7 @@
       <c r="AI379" s="4"/>
       <c r="AJ379" s="4"/>
     </row>
-    <row r="380" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -16018,7 +16111,7 @@
       <c r="AI380" s="4"/>
       <c r="AJ380" s="4"/>
     </row>
-    <row r="381" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -16056,7 +16149,7 @@
       <c r="AI381" s="4"/>
       <c r="AJ381" s="4"/>
     </row>
-    <row r="382" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -16094,7 +16187,7 @@
       <c r="AI382" s="4"/>
       <c r="AJ382" s="4"/>
     </row>
-    <row r="383" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -16132,7 +16225,7 @@
       <c r="AI383" s="4"/>
       <c r="AJ383" s="4"/>
     </row>
-    <row r="384" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -16170,7 +16263,7 @@
       <c r="AI384" s="4"/>
       <c r="AJ384" s="4"/>
     </row>
-    <row r="385" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -16208,7 +16301,7 @@
       <c r="AI385" s="4"/>
       <c r="AJ385" s="4"/>
     </row>
-    <row r="386" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -16246,7 +16339,7 @@
       <c r="AI386" s="4"/>
       <c r="AJ386" s="4"/>
     </row>
-    <row r="387" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -16284,7 +16377,7 @@
       <c r="AI387" s="4"/>
       <c r="AJ387" s="4"/>
     </row>
-    <row r="388" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -16322,7 +16415,7 @@
       <c r="AI388" s="4"/>
       <c r="AJ388" s="4"/>
     </row>
-    <row r="389" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -16360,7 +16453,7 @@
       <c r="AI389" s="4"/>
       <c r="AJ389" s="4"/>
     </row>
-    <row r="390" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -16398,7 +16491,7 @@
       <c r="AI390" s="4"/>
       <c r="AJ390" s="4"/>
     </row>
-    <row r="391" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -16436,7 +16529,7 @@
       <c r="AI391" s="4"/>
       <c r="AJ391" s="4"/>
     </row>
-    <row r="392" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -16474,7 +16567,7 @@
       <c r="AI392" s="4"/>
       <c r="AJ392" s="4"/>
     </row>
-    <row r="393" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -16512,7 +16605,7 @@
       <c r="AI393" s="4"/>
       <c r="AJ393" s="4"/>
     </row>
-    <row r="394" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -16550,7 +16643,7 @@
       <c r="AI394" s="4"/>
       <c r="AJ394" s="4"/>
     </row>
-    <row r="395" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -16588,7 +16681,7 @@
       <c r="AI395" s="4"/>
       <c r="AJ395" s="4"/>
     </row>
-    <row r="396" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -16626,7 +16719,7 @@
       <c r="AI396" s="4"/>
       <c r="AJ396" s="4"/>
     </row>
-    <row r="397" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -16664,7 +16757,7 @@
       <c r="AI397" s="4"/>
       <c r="AJ397" s="4"/>
     </row>
-    <row r="398" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -16702,7 +16795,7 @@
       <c r="AI398" s="4"/>
       <c r="AJ398" s="4"/>
     </row>
-    <row r="399" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -16740,7 +16833,7 @@
       <c r="AI399" s="4"/>
       <c r="AJ399" s="4"/>
     </row>
-    <row r="400" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -16778,7 +16871,7 @@
       <c r="AI400" s="4"/>
       <c r="AJ400" s="4"/>
     </row>
-    <row r="401" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -16816,7 +16909,7 @@
       <c r="AI401" s="4"/>
       <c r="AJ401" s="4"/>
     </row>
-    <row r="402" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -16854,7 +16947,7 @@
       <c r="AI402" s="4"/>
       <c r="AJ402" s="4"/>
     </row>
-    <row r="403" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -16892,7 +16985,7 @@
       <c r="AI403" s="4"/>
       <c r="AJ403" s="4"/>
     </row>
-    <row r="404" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -16930,7 +17023,7 @@
       <c r="AI404" s="4"/>
       <c r="AJ404" s="4"/>
     </row>
-    <row r="405" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -16968,7 +17061,7 @@
       <c r="AI405" s="4"/>
       <c r="AJ405" s="4"/>
     </row>
-    <row r="406" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -17006,7 +17099,7 @@
       <c r="AI406" s="4"/>
       <c r="AJ406" s="4"/>
     </row>
-    <row r="407" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -17044,7 +17137,7 @@
       <c r="AI407" s="4"/>
       <c r="AJ407" s="4"/>
     </row>
-    <row r="408" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -17082,7 +17175,7 @@
       <c r="AI408" s="4"/>
       <c r="AJ408" s="4"/>
     </row>
-    <row r="409" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -17120,7 +17213,7 @@
       <c r="AI409" s="4"/>
       <c r="AJ409" s="4"/>
     </row>
-    <row r="410" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -17158,7 +17251,7 @@
       <c r="AI410" s="4"/>
       <c r="AJ410" s="4"/>
     </row>
-    <row r="411" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -17196,7 +17289,7 @@
       <c r="AI411" s="4"/>
       <c r="AJ411" s="4"/>
     </row>
-    <row r="412" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -17234,7 +17327,7 @@
       <c r="AI412" s="4"/>
       <c r="AJ412" s="4"/>
     </row>
-    <row r="413" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -17272,7 +17365,7 @@
       <c r="AI413" s="4"/>
       <c r="AJ413" s="4"/>
     </row>
-    <row r="414" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -17310,7 +17403,7 @@
       <c r="AI414" s="4"/>
       <c r="AJ414" s="4"/>
     </row>
-    <row r="415" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -17348,7 +17441,7 @@
       <c r="AI415" s="4"/>
       <c r="AJ415" s="4"/>
     </row>
-    <row r="416" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -17386,7 +17479,7 @@
       <c r="AI416" s="4"/>
       <c r="AJ416" s="4"/>
     </row>
-    <row r="417" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -17424,7 +17517,7 @@
       <c r="AI417" s="4"/>
       <c r="AJ417" s="4"/>
     </row>
-    <row r="418" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -17462,7 +17555,7 @@
       <c r="AI418" s="4"/>
       <c r="AJ418" s="4"/>
     </row>
-    <row r="419" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -17500,7 +17593,7 @@
       <c r="AI419" s="4"/>
       <c r="AJ419" s="4"/>
     </row>
-    <row r="420" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -17538,7 +17631,7 @@
       <c r="AI420" s="4"/>
       <c r="AJ420" s="4"/>
     </row>
-    <row r="421" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -17576,7 +17669,7 @@
       <c r="AI421" s="4"/>
       <c r="AJ421" s="4"/>
     </row>
-    <row r="422" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -17614,7 +17707,7 @@
       <c r="AI422" s="4"/>
       <c r="AJ422" s="4"/>
     </row>
-    <row r="423" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -17652,7 +17745,7 @@
       <c r="AI423" s="4"/>
       <c r="AJ423" s="4"/>
     </row>
-    <row r="424" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -17690,7 +17783,7 @@
       <c r="AI424" s="4"/>
       <c r="AJ424" s="4"/>
     </row>
-    <row r="425" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -17728,7 +17821,7 @@
       <c r="AI425" s="4"/>
       <c r="AJ425" s="4"/>
     </row>
-    <row r="426" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -17766,7 +17859,7 @@
       <c r="AI426" s="4"/>
       <c r="AJ426" s="4"/>
     </row>
-    <row r="427" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -17804,7 +17897,7 @@
       <c r="AI427" s="4"/>
       <c r="AJ427" s="4"/>
     </row>
-    <row r="428" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -17842,7 +17935,7 @@
       <c r="AI428" s="4"/>
       <c r="AJ428" s="4"/>
     </row>
-    <row r="429" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -17880,7 +17973,7 @@
       <c r="AI429" s="4"/>
       <c r="AJ429" s="4"/>
     </row>
-    <row r="430" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -17918,7 +18011,7 @@
       <c r="AI430" s="4"/>
       <c r="AJ430" s="4"/>
     </row>
-    <row r="431" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -17956,7 +18049,7 @@
       <c r="AI431" s="4"/>
       <c r="AJ431" s="4"/>
     </row>
-    <row r="432" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -17994,7 +18087,7 @@
       <c r="AI432" s="4"/>
       <c r="AJ432" s="4"/>
     </row>
-    <row r="433" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -18032,7 +18125,7 @@
       <c r="AI433" s="4"/>
       <c r="AJ433" s="4"/>
     </row>
-    <row r="434" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -18070,7 +18163,7 @@
       <c r="AI434" s="4"/>
       <c r="AJ434" s="4"/>
     </row>
-    <row r="435" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -18108,7 +18201,7 @@
       <c r="AI435" s="4"/>
       <c r="AJ435" s="4"/>
     </row>
-    <row r="436" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -18146,7 +18239,7 @@
       <c r="AI436" s="4"/>
       <c r="AJ436" s="4"/>
     </row>
-    <row r="437" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -18184,7 +18277,7 @@
       <c r="AI437" s="4"/>
       <c r="AJ437" s="4"/>
     </row>
-    <row r="438" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -18222,7 +18315,7 @@
       <c r="AI438" s="4"/>
       <c r="AJ438" s="4"/>
     </row>
-    <row r="439" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -18260,7 +18353,7 @@
       <c r="AI439" s="4"/>
       <c r="AJ439" s="4"/>
     </row>
-    <row r="440" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -18298,7 +18391,7 @@
       <c r="AI440" s="4"/>
       <c r="AJ440" s="4"/>
     </row>
-    <row r="441" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -18336,7 +18429,7 @@
       <c r="AI441" s="4"/>
       <c r="AJ441" s="4"/>
     </row>
-    <row r="442" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -18374,7 +18467,7 @@
       <c r="AI442" s="4"/>
       <c r="AJ442" s="4"/>
     </row>
-    <row r="443" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -18412,7 +18505,7 @@
       <c r="AI443" s="4"/>
       <c r="AJ443" s="4"/>
     </row>
-    <row r="444" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -18450,7 +18543,7 @@
       <c r="AI444" s="4"/>
       <c r="AJ444" s="4"/>
     </row>
-    <row r="445" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -18488,7 +18581,7 @@
       <c r="AI445" s="4"/>
       <c r="AJ445" s="4"/>
     </row>
-    <row r="446" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -18526,7 +18619,7 @@
       <c r="AI446" s="4"/>
       <c r="AJ446" s="4"/>
     </row>
-    <row r="447" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -18564,7 +18657,7 @@
       <c r="AI447" s="4"/>
       <c r="AJ447" s="4"/>
     </row>
-    <row r="448" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -18602,7 +18695,7 @@
       <c r="AI448" s="4"/>
       <c r="AJ448" s="4"/>
     </row>
-    <row r="449" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -18640,7 +18733,7 @@
       <c r="AI449" s="4"/>
       <c r="AJ449" s="4"/>
     </row>
-    <row r="450" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -18678,7 +18771,7 @@
       <c r="AI450" s="4"/>
       <c r="AJ450" s="4"/>
     </row>
-    <row r="451" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -18716,7 +18809,7 @@
       <c r="AI451" s="4"/>
       <c r="AJ451" s="4"/>
     </row>
-    <row r="452" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -18754,7 +18847,7 @@
       <c r="AI452" s="4"/>
       <c r="AJ452" s="4"/>
     </row>
-    <row r="453" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -18792,7 +18885,7 @@
       <c r="AI453" s="4"/>
       <c r="AJ453" s="4"/>
     </row>
-    <row r="454" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -18830,7 +18923,7 @@
       <c r="AI454" s="4"/>
       <c r="AJ454" s="4"/>
     </row>
-    <row r="455" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -18868,7 +18961,7 @@
       <c r="AI455" s="4"/>
       <c r="AJ455" s="4"/>
     </row>
-    <row r="456" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -18906,7 +18999,7 @@
       <c r="AI456" s="4"/>
       <c r="AJ456" s="4"/>
     </row>
-    <row r="457" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -18944,7 +19037,7 @@
       <c r="AI457" s="4"/>
       <c r="AJ457" s="4"/>
     </row>
-    <row r="458" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -18982,7 +19075,7 @@
       <c r="AI458" s="4"/>
       <c r="AJ458" s="4"/>
     </row>
-    <row r="459" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -19020,7 +19113,7 @@
       <c r="AI459" s="4"/>
       <c r="AJ459" s="4"/>
     </row>
-    <row r="460" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -19058,7 +19151,7 @@
       <c r="AI460" s="4"/>
       <c r="AJ460" s="4"/>
     </row>
-    <row r="461" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -19096,7 +19189,7 @@
       <c r="AI461" s="4"/>
       <c r="AJ461" s="4"/>
     </row>
-    <row r="462" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -19134,7 +19227,7 @@
       <c r="AI462" s="4"/>
       <c r="AJ462" s="4"/>
     </row>
-    <row r="463" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -19172,7 +19265,7 @@
       <c r="AI463" s="4"/>
       <c r="AJ463" s="4"/>
     </row>
-    <row r="464" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -19210,7 +19303,7 @@
       <c r="AI464" s="4"/>
       <c r="AJ464" s="4"/>
     </row>
-    <row r="465" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -19248,7 +19341,7 @@
       <c r="AI465" s="4"/>
       <c r="AJ465" s="4"/>
     </row>
-    <row r="466" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -19286,7 +19379,7 @@
       <c r="AI466" s="4"/>
       <c r="AJ466" s="4"/>
     </row>
-    <row r="467" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -19324,7 +19417,7 @@
       <c r="AI467" s="4"/>
       <c r="AJ467" s="4"/>
     </row>
-    <row r="468" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -19362,7 +19455,7 @@
       <c r="AI468" s="4"/>
       <c r="AJ468" s="4"/>
     </row>
-    <row r="469" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -19400,7 +19493,7 @@
       <c r="AI469" s="4"/>
       <c r="AJ469" s="4"/>
     </row>
-    <row r="470" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -19438,7 +19531,7 @@
       <c r="AI470" s="4"/>
       <c r="AJ470" s="4"/>
     </row>
-    <row r="471" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -19476,7 +19569,7 @@
       <c r="AI471" s="4"/>
       <c r="AJ471" s="4"/>
     </row>
-    <row r="472" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -19514,7 +19607,7 @@
       <c r="AI472" s="4"/>
       <c r="AJ472" s="4"/>
     </row>
-    <row r="473" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -19552,7 +19645,7 @@
       <c r="AI473" s="4"/>
       <c r="AJ473" s="4"/>
     </row>
-    <row r="474" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -19590,7 +19683,7 @@
       <c r="AI474" s="4"/>
       <c r="AJ474" s="4"/>
     </row>
-    <row r="475" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -19628,7 +19721,7 @@
       <c r="AI475" s="4"/>
       <c r="AJ475" s="4"/>
     </row>
-    <row r="476" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -19666,7 +19759,7 @@
       <c r="AI476" s="4"/>
       <c r="AJ476" s="4"/>
     </row>
-    <row r="477" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -19704,7 +19797,7 @@
       <c r="AI477" s="4"/>
       <c r="AJ477" s="4"/>
     </row>
-    <row r="478" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -19742,7 +19835,7 @@
       <c r="AI478" s="4"/>
       <c r="AJ478" s="4"/>
     </row>
-    <row r="479" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -19780,7 +19873,7 @@
       <c r="AI479" s="4"/>
       <c r="AJ479" s="4"/>
     </row>
-    <row r="480" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -19818,7 +19911,7 @@
       <c r="AI480" s="4"/>
       <c r="AJ480" s="4"/>
     </row>
-    <row r="481" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -19856,7 +19949,7 @@
       <c r="AI481" s="4"/>
       <c r="AJ481" s="4"/>
     </row>
-    <row r="482" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -19894,7 +19987,7 @@
       <c r="AI482" s="4"/>
       <c r="AJ482" s="4"/>
     </row>
-    <row r="483" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -19932,7 +20025,7 @@
       <c r="AI483" s="4"/>
       <c r="AJ483" s="4"/>
     </row>
-    <row r="484" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -19970,7 +20063,7 @@
       <c r="AI484" s="4"/>
       <c r="AJ484" s="4"/>
     </row>
-    <row r="485" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -20008,7 +20101,7 @@
       <c r="AI485" s="4"/>
       <c r="AJ485" s="4"/>
     </row>
-    <row r="486" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -20046,7 +20139,7 @@
       <c r="AI486" s="4"/>
       <c r="AJ486" s="4"/>
     </row>
-    <row r="487" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -20084,7 +20177,7 @@
       <c r="AI487" s="4"/>
       <c r="AJ487" s="4"/>
     </row>
-    <row r="488" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -20122,7 +20215,7 @@
       <c r="AI488" s="4"/>
       <c r="AJ488" s="4"/>
     </row>
-    <row r="489" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -20160,7 +20253,7 @@
       <c r="AI489" s="4"/>
       <c r="AJ489" s="4"/>
     </row>
-    <row r="490" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -20198,7 +20291,7 @@
       <c r="AI490" s="4"/>
       <c r="AJ490" s="4"/>
     </row>
-    <row r="491" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -20236,7 +20329,7 @@
       <c r="AI491" s="4"/>
       <c r="AJ491" s="4"/>
     </row>
-    <row r="492" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -20274,7 +20367,7 @@
       <c r="AI492" s="4"/>
       <c r="AJ492" s="4"/>
     </row>
-    <row r="493" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -20312,7 +20405,7 @@
       <c r="AI493" s="4"/>
       <c r="AJ493" s="4"/>
     </row>
-    <row r="494" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -20350,7 +20443,7 @@
       <c r="AI494" s="4"/>
       <c r="AJ494" s="4"/>
     </row>
-    <row r="495" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -20388,7 +20481,7 @@
       <c r="AI495" s="4"/>
       <c r="AJ495" s="4"/>
     </row>
-    <row r="496" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -20426,7 +20519,7 @@
       <c r="AI496" s="4"/>
       <c r="AJ496" s="4"/>
     </row>
-    <row r="497" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -20464,7 +20557,7 @@
       <c r="AI497" s="4"/>
       <c r="AJ497" s="4"/>
     </row>
-    <row r="498" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -20502,7 +20595,7 @@
       <c r="AI498" s="4"/>
       <c r="AJ498" s="4"/>
     </row>
-    <row r="499" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -20540,7 +20633,7 @@
       <c r="AI499" s="4"/>
       <c r="AJ499" s="4"/>
     </row>
-    <row r="500" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -20578,7 +20671,7 @@
       <c r="AI500" s="4"/>
       <c r="AJ500" s="4"/>
     </row>
-    <row r="501" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -20616,7 +20709,7 @@
       <c r="AI501" s="4"/>
       <c r="AJ501" s="4"/>
     </row>
-    <row r="502" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -20654,7 +20747,7 @@
       <c r="AI502" s="4"/>
       <c r="AJ502" s="4"/>
     </row>
-    <row r="503" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -20692,7 +20785,7 @@
       <c r="AI503" s="4"/>
       <c r="AJ503" s="4"/>
     </row>
-    <row r="504" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -20730,7 +20823,7 @@
       <c r="AI504" s="4"/>
       <c r="AJ504" s="4"/>
     </row>
-    <row r="505" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -20768,7 +20861,7 @@
       <c r="AI505" s="4"/>
       <c r="AJ505" s="4"/>
     </row>
-    <row r="506" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -20806,7 +20899,7 @@
       <c r="AI506" s="4"/>
       <c r="AJ506" s="4"/>
     </row>
-    <row r="507" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -20844,7 +20937,7 @@
       <c r="AI507" s="4"/>
       <c r="AJ507" s="4"/>
     </row>
-    <row r="508" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -20882,7 +20975,7 @@
       <c r="AI508" s="4"/>
       <c r="AJ508" s="4"/>
     </row>
-    <row r="509" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -20920,7 +21013,7 @@
       <c r="AI509" s="4"/>
       <c r="AJ509" s="4"/>
     </row>
-    <row r="510" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -20958,7 +21051,7 @@
       <c r="AI510" s="4"/>
       <c r="AJ510" s="4"/>
     </row>
-    <row r="511" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -20996,7 +21089,7 @@
       <c r="AI511" s="4"/>
       <c r="AJ511" s="4"/>
     </row>
-    <row r="512" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -21034,7 +21127,7 @@
       <c r="AI512" s="4"/>
       <c r="AJ512" s="4"/>
     </row>
-    <row r="513" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -21072,7 +21165,7 @@
       <c r="AI513" s="4"/>
       <c r="AJ513" s="4"/>
     </row>
-    <row r="514" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -21110,7 +21203,7 @@
       <c r="AI514" s="4"/>
       <c r="AJ514" s="4"/>
     </row>
-    <row r="515" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -21148,7 +21241,7 @@
       <c r="AI515" s="4"/>
       <c r="AJ515" s="4"/>
     </row>
-    <row r="516" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -21186,7 +21279,7 @@
       <c r="AI516" s="4"/>
       <c r="AJ516" s="4"/>
     </row>
-    <row r="517" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -21224,7 +21317,7 @@
       <c r="AI517" s="4"/>
       <c r="AJ517" s="4"/>
     </row>
-    <row r="518" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -21262,7 +21355,7 @@
       <c r="AI518" s="4"/>
       <c r="AJ518" s="4"/>
     </row>
-    <row r="519" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -21300,7 +21393,7 @@
       <c r="AI519" s="4"/>
       <c r="AJ519" s="4"/>
     </row>
-    <row r="520" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -21338,7 +21431,7 @@
       <c r="AI520" s="4"/>
       <c r="AJ520" s="4"/>
     </row>
-    <row r="521" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -21376,7 +21469,7 @@
       <c r="AI521" s="4"/>
       <c r="AJ521" s="4"/>
     </row>
-    <row r="522" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -21414,7 +21507,7 @@
       <c r="AI522" s="4"/>
       <c r="AJ522" s="4"/>
     </row>
-    <row r="523" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -21452,7 +21545,7 @@
       <c r="AI523" s="4"/>
       <c r="AJ523" s="4"/>
     </row>
-    <row r="524" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -21490,7 +21583,7 @@
       <c r="AI524" s="4"/>
       <c r="AJ524" s="4"/>
     </row>
-    <row r="525" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -21528,7 +21621,7 @@
       <c r="AI525" s="4"/>
       <c r="AJ525" s="4"/>
     </row>
-    <row r="526" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -21566,7 +21659,7 @@
       <c r="AI526" s="4"/>
       <c r="AJ526" s="4"/>
     </row>
-    <row r="527" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -21604,7 +21697,7 @@
       <c r="AI527" s="4"/>
       <c r="AJ527" s="4"/>
     </row>
-    <row r="528" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -21642,7 +21735,7 @@
       <c r="AI528" s="4"/>
       <c r="AJ528" s="4"/>
     </row>
-    <row r="529" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -21680,7 +21773,7 @@
       <c r="AI529" s="4"/>
       <c r="AJ529" s="4"/>
     </row>
-    <row r="530" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -21718,7 +21811,7 @@
       <c r="AI530" s="4"/>
       <c r="AJ530" s="4"/>
     </row>
-    <row r="531" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -21756,7 +21849,7 @@
       <c r="AI531" s="4"/>
       <c r="AJ531" s="4"/>
     </row>
-    <row r="532" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -21794,7 +21887,7 @@
       <c r="AI532" s="4"/>
       <c r="AJ532" s="4"/>
     </row>
-    <row r="533" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -21832,7 +21925,7 @@
       <c r="AI533" s="4"/>
       <c r="AJ533" s="4"/>
     </row>
-    <row r="534" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -21870,7 +21963,7 @@
       <c r="AI534" s="4"/>
       <c r="AJ534" s="4"/>
     </row>
-    <row r="535" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -21908,7 +22001,7 @@
       <c r="AI535" s="4"/>
       <c r="AJ535" s="4"/>
     </row>
-    <row r="536" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -21946,7 +22039,7 @@
       <c r="AI536" s="4"/>
       <c r="AJ536" s="4"/>
     </row>
-    <row r="537" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -21984,7 +22077,7 @@
       <c r="AI537" s="4"/>
       <c r="AJ537" s="4"/>
     </row>
-    <row r="538" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -22022,7 +22115,7 @@
       <c r="AI538" s="4"/>
       <c r="AJ538" s="4"/>
     </row>
-    <row r="539" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -22060,7 +22153,7 @@
       <c r="AI539" s="4"/>
       <c r="AJ539" s="4"/>
     </row>
-    <row r="540" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -22098,7 +22191,7 @@
       <c r="AI540" s="4"/>
       <c r="AJ540" s="4"/>
     </row>
-    <row r="541" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -22136,7 +22229,7 @@
       <c r="AI541" s="4"/>
       <c r="AJ541" s="4"/>
     </row>
-    <row r="542" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -22174,7 +22267,7 @@
       <c r="AI542" s="4"/>
       <c r="AJ542" s="4"/>
     </row>
-    <row r="543" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -22212,7 +22305,7 @@
       <c r="AI543" s="4"/>
       <c r="AJ543" s="4"/>
     </row>
-    <row r="544" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -22250,7 +22343,7 @@
       <c r="AI544" s="4"/>
       <c r="AJ544" s="4"/>
     </row>
-    <row r="545" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -22288,7 +22381,7 @@
       <c r="AI545" s="4"/>
       <c r="AJ545" s="4"/>
     </row>
-    <row r="546" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -22326,7 +22419,7 @@
       <c r="AI546" s="4"/>
       <c r="AJ546" s="4"/>
     </row>
-    <row r="547" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -22364,7 +22457,7 @@
       <c r="AI547" s="4"/>
       <c r="AJ547" s="4"/>
     </row>
-    <row r="548" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -22402,7 +22495,7 @@
       <c r="AI548" s="4"/>
       <c r="AJ548" s="4"/>
     </row>
-    <row r="549" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -22440,7 +22533,7 @@
       <c r="AI549" s="4"/>
       <c r="AJ549" s="4"/>
     </row>
-    <row r="550" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -22478,7 +22571,7 @@
       <c r="AI550" s="4"/>
       <c r="AJ550" s="4"/>
     </row>
-    <row r="551" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -22516,7 +22609,7 @@
       <c r="AI551" s="4"/>
       <c r="AJ551" s="4"/>
     </row>
-    <row r="552" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -22554,7 +22647,7 @@
       <c r="AI552" s="4"/>
       <c r="AJ552" s="4"/>
     </row>
-    <row r="553" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -22592,7 +22685,7 @@
       <c r="AI553" s="4"/>
       <c r="AJ553" s="4"/>
     </row>
-    <row r="554" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -22630,7 +22723,7 @@
       <c r="AI554" s="4"/>
       <c r="AJ554" s="4"/>
     </row>
-    <row r="555" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -22668,7 +22761,7 @@
       <c r="AI555" s="4"/>
       <c r="AJ555" s="4"/>
     </row>
-    <row r="556" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -22706,7 +22799,7 @@
       <c r="AI556" s="4"/>
       <c r="AJ556" s="4"/>
     </row>
-    <row r="557" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -22744,7 +22837,7 @@
       <c r="AI557" s="4"/>
       <c r="AJ557" s="4"/>
     </row>
-    <row r="558" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -22782,7 +22875,7 @@
       <c r="AI558" s="4"/>
       <c r="AJ558" s="4"/>
     </row>
-    <row r="559" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -22820,7 +22913,7 @@
       <c r="AI559" s="4"/>
       <c r="AJ559" s="4"/>
     </row>
-    <row r="560" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -22858,7 +22951,7 @@
       <c r="AI560" s="4"/>
       <c r="AJ560" s="4"/>
     </row>
-    <row r="561" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -22896,7 +22989,7 @@
       <c r="AI561" s="4"/>
       <c r="AJ561" s="4"/>
     </row>
-    <row r="562" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -22934,7 +23027,7 @@
       <c r="AI562" s="4"/>
       <c r="AJ562" s="4"/>
     </row>
-    <row r="563" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -22972,7 +23065,7 @@
       <c r="AI563" s="4"/>
       <c r="AJ563" s="4"/>
     </row>
-    <row r="564" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -23010,7 +23103,7 @@
       <c r="AI564" s="4"/>
       <c r="AJ564" s="4"/>
     </row>
-    <row r="565" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -23048,7 +23141,7 @@
       <c r="AI565" s="4"/>
       <c r="AJ565" s="4"/>
     </row>
-    <row r="566" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -23086,7 +23179,7 @@
       <c r="AI566" s="4"/>
       <c r="AJ566" s="4"/>
     </row>
-    <row r="567" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -23124,7 +23217,7 @@
       <c r="AI567" s="4"/>
       <c r="AJ567" s="4"/>
     </row>
-    <row r="568" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -23162,7 +23255,7 @@
       <c r="AI568" s="4"/>
       <c r="AJ568" s="4"/>
     </row>
-    <row r="569" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -23200,7 +23293,7 @@
       <c r="AI569" s="4"/>
       <c r="AJ569" s="4"/>
     </row>
-    <row r="570" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -23238,7 +23331,7 @@
       <c r="AI570" s="4"/>
       <c r="AJ570" s="4"/>
     </row>
-    <row r="571" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -23276,7 +23369,7 @@
       <c r="AI571" s="4"/>
       <c r="AJ571" s="4"/>
     </row>
-    <row r="572" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -23314,7 +23407,7 @@
       <c r="AI572" s="4"/>
       <c r="AJ572" s="4"/>
     </row>
-    <row r="573" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -23352,7 +23445,7 @@
       <c r="AI573" s="4"/>
       <c r="AJ573" s="4"/>
     </row>
-    <row r="574" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -23390,7 +23483,7 @@
       <c r="AI574" s="4"/>
       <c r="AJ574" s="4"/>
     </row>
-    <row r="575" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -23428,7 +23521,7 @@
       <c r="AI575" s="4"/>
       <c r="AJ575" s="4"/>
     </row>
-    <row r="576" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -23466,7 +23559,7 @@
       <c r="AI576" s="4"/>
       <c r="AJ576" s="4"/>
     </row>
-    <row r="577" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -23504,7 +23597,7 @@
       <c r="AI577" s="4"/>
       <c r="AJ577" s="4"/>
     </row>
-    <row r="578" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -23542,7 +23635,7 @@
       <c r="AI578" s="4"/>
       <c r="AJ578" s="4"/>
     </row>
-    <row r="579" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -23580,7 +23673,7 @@
       <c r="AI579" s="4"/>
       <c r="AJ579" s="4"/>
     </row>
-    <row r="580" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -23618,7 +23711,7 @@
       <c r="AI580" s="4"/>
       <c r="AJ580" s="4"/>
     </row>
-    <row r="581" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -23656,7 +23749,7 @@
       <c r="AI581" s="4"/>
       <c r="AJ581" s="4"/>
     </row>
-    <row r="582" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -23694,7 +23787,7 @@
       <c r="AI582" s="4"/>
       <c r="AJ582" s="4"/>
     </row>
-    <row r="583" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -23732,7 +23825,7 @@
       <c r="AI583" s="4"/>
       <c r="AJ583" s="4"/>
     </row>
-    <row r="584" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -23770,7 +23863,7 @@
       <c r="AI584" s="4"/>
       <c r="AJ584" s="4"/>
     </row>
-    <row r="585" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -23808,7 +23901,7 @@
       <c r="AI585" s="4"/>
       <c r="AJ585" s="4"/>
     </row>
-    <row r="586" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -23846,7 +23939,7 @@
       <c r="AI586" s="4"/>
       <c r="AJ586" s="4"/>
     </row>
-    <row r="587" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -23884,7 +23977,7 @@
       <c r="AI587" s="4"/>
       <c r="AJ587" s="4"/>
     </row>
-    <row r="588" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -23922,7 +24015,7 @@
       <c r="AI588" s="4"/>
       <c r="AJ588" s="4"/>
     </row>
-    <row r="589" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -23960,7 +24053,7 @@
       <c r="AI589" s="4"/>
       <c r="AJ589" s="4"/>
     </row>
-    <row r="590" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -23998,7 +24091,7 @@
       <c r="AI590" s="4"/>
       <c r="AJ590" s="4"/>
     </row>
-    <row r="591" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -24036,7 +24129,7 @@
       <c r="AI591" s="4"/>
       <c r="AJ591" s="4"/>
     </row>
-    <row r="592" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -24074,7 +24167,7 @@
       <c r="AI592" s="4"/>
       <c r="AJ592" s="4"/>
     </row>
-    <row r="593" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -24112,7 +24205,7 @@
       <c r="AI593" s="4"/>
       <c r="AJ593" s="4"/>
     </row>
-    <row r="594" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -24150,7 +24243,7 @@
       <c r="AI594" s="4"/>
       <c r="AJ594" s="4"/>
     </row>
-    <row r="595" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -24188,7 +24281,7 @@
       <c r="AI595" s="4"/>
       <c r="AJ595" s="4"/>
     </row>
-    <row r="596" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -24226,7 +24319,7 @@
       <c r="AI596" s="4"/>
       <c r="AJ596" s="4"/>
     </row>
-    <row r="597" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -24264,7 +24357,7 @@
       <c r="AI597" s="4"/>
       <c r="AJ597" s="4"/>
     </row>
-    <row r="598" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -24302,7 +24395,7 @@
       <c r="AI598" s="4"/>
       <c r="AJ598" s="4"/>
     </row>
-    <row r="599" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -24340,7 +24433,7 @@
       <c r="AI599" s="4"/>
       <c r="AJ599" s="4"/>
     </row>
-    <row r="600" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -24378,7 +24471,7 @@
       <c r="AI600" s="4"/>
       <c r="AJ600" s="4"/>
     </row>
-    <row r="601" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -24416,7 +24509,7 @@
       <c r="AI601" s="4"/>
       <c r="AJ601" s="4"/>
     </row>
-    <row r="602" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -24454,7 +24547,7 @@
       <c r="AI602" s="4"/>
       <c r="AJ602" s="4"/>
     </row>
-    <row r="603" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -24492,7 +24585,7 @@
       <c r="AI603" s="4"/>
       <c r="AJ603" s="4"/>
     </row>
-    <row r="604" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -24530,7 +24623,7 @@
       <c r="AI604" s="4"/>
       <c r="AJ604" s="4"/>
     </row>
-    <row r="605" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -24568,7 +24661,7 @@
       <c r="AI605" s="4"/>
       <c r="AJ605" s="4"/>
     </row>
-    <row r="606" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -24606,7 +24699,7 @@
       <c r="AI606" s="4"/>
       <c r="AJ606" s="4"/>
     </row>
-    <row r="607" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -24644,7 +24737,7 @@
       <c r="AI607" s="4"/>
       <c r="AJ607" s="4"/>
     </row>
-    <row r="608" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -24682,7 +24775,7 @@
       <c r="AI608" s="4"/>
       <c r="AJ608" s="4"/>
     </row>
-    <row r="609" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -24720,7 +24813,7 @@
       <c r="AI609" s="4"/>
       <c r="AJ609" s="4"/>
     </row>
-    <row r="610" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -24758,7 +24851,7 @@
       <c r="AI610" s="4"/>
       <c r="AJ610" s="4"/>
     </row>
-    <row r="611" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -24796,7 +24889,7 @@
       <c r="AI611" s="4"/>
       <c r="AJ611" s="4"/>
     </row>
-    <row r="612" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -24834,7 +24927,7 @@
       <c r="AI612" s="4"/>
       <c r="AJ612" s="4"/>
     </row>
-    <row r="613" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -24872,7 +24965,7 @@
       <c r="AI613" s="4"/>
       <c r="AJ613" s="4"/>
     </row>
-    <row r="614" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -24910,7 +25003,7 @@
       <c r="AI614" s="4"/>
       <c r="AJ614" s="4"/>
     </row>
-    <row r="615" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -24948,7 +25041,7 @@
       <c r="AI615" s="4"/>
       <c r="AJ615" s="4"/>
     </row>
-    <row r="616" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -24986,7 +25079,7 @@
       <c r="AI616" s="4"/>
       <c r="AJ616" s="4"/>
     </row>
-    <row r="617" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -25024,7 +25117,7 @@
       <c r="AI617" s="4"/>
       <c r="AJ617" s="4"/>
     </row>
-    <row r="618" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -25062,7 +25155,7 @@
       <c r="AI618" s="4"/>
       <c r="AJ618" s="4"/>
     </row>
-    <row r="619" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -25100,7 +25193,7 @@
       <c r="AI619" s="4"/>
       <c r="AJ619" s="4"/>
     </row>
-    <row r="620" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -25138,7 +25231,7 @@
       <c r="AI620" s="4"/>
       <c r="AJ620" s="4"/>
     </row>
-    <row r="621" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -25176,7 +25269,7 @@
       <c r="AI621" s="4"/>
       <c r="AJ621" s="4"/>
     </row>
-    <row r="622" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -25214,7 +25307,7 @@
       <c r="AI622" s="4"/>
       <c r="AJ622" s="4"/>
     </row>
-    <row r="623" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -25252,7 +25345,7 @@
       <c r="AI623" s="4"/>
       <c r="AJ623" s="4"/>
     </row>
-    <row r="624" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -25290,7 +25383,7 @@
       <c r="AI624" s="4"/>
       <c r="AJ624" s="4"/>
     </row>
-    <row r="625" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -25328,7 +25421,7 @@
       <c r="AI625" s="4"/>
       <c r="AJ625" s="4"/>
     </row>
-    <row r="626" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -25366,7 +25459,7 @@
       <c r="AI626" s="4"/>
       <c r="AJ626" s="4"/>
     </row>
-    <row r="627" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -25404,7 +25497,7 @@
       <c r="AI627" s="4"/>
       <c r="AJ627" s="4"/>
     </row>
-    <row r="628" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -25442,7 +25535,7 @@
       <c r="AI628" s="4"/>
       <c r="AJ628" s="4"/>
     </row>
-    <row r="629" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -25480,7 +25573,7 @@
       <c r="AI629" s="4"/>
       <c r="AJ629" s="4"/>
     </row>
-    <row r="630" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -25518,7 +25611,7 @@
       <c r="AI630" s="4"/>
       <c r="AJ630" s="4"/>
     </row>
-    <row r="631" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -25556,7 +25649,7 @@
       <c r="AI631" s="4"/>
       <c r="AJ631" s="4"/>
     </row>
-    <row r="632" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -25594,7 +25687,7 @@
       <c r="AI632" s="4"/>
       <c r="AJ632" s="4"/>
     </row>
-    <row r="633" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -25632,7 +25725,7 @@
       <c r="AI633" s="4"/>
       <c r="AJ633" s="4"/>
     </row>
-    <row r="634" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -25670,7 +25763,7 @@
       <c r="AI634" s="4"/>
       <c r="AJ634" s="4"/>
     </row>
-    <row r="635" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -25708,7 +25801,7 @@
       <c r="AI635" s="4"/>
       <c r="AJ635" s="4"/>
     </row>
-    <row r="636" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -25746,7 +25839,7 @@
       <c r="AI636" s="4"/>
       <c r="AJ636" s="4"/>
     </row>
-    <row r="637" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -25784,7 +25877,7 @@
       <c r="AI637" s="4"/>
       <c r="AJ637" s="4"/>
     </row>
-    <row r="638" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -25822,7 +25915,7 @@
       <c r="AI638" s="4"/>
       <c r="AJ638" s="4"/>
     </row>
-    <row r="639" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -25860,7 +25953,7 @@
       <c r="AI639" s="4"/>
       <c r="AJ639" s="4"/>
     </row>
-    <row r="640" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -25898,7 +25991,7 @@
       <c r="AI640" s="4"/>
       <c r="AJ640" s="4"/>
     </row>
-    <row r="641" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -25936,7 +26029,7 @@
       <c r="AI641" s="4"/>
       <c r="AJ641" s="4"/>
     </row>
-    <row r="642" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -25974,7 +26067,7 @@
       <c r="AI642" s="4"/>
       <c r="AJ642" s="4"/>
     </row>
-    <row r="643" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -26012,7 +26105,7 @@
       <c r="AI643" s="4"/>
       <c r="AJ643" s="4"/>
     </row>
-    <row r="644" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -26050,7 +26143,7 @@
       <c r="AI644" s="4"/>
       <c r="AJ644" s="4"/>
     </row>
-    <row r="645" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -26088,7 +26181,7 @@
       <c r="AI645" s="4"/>
       <c r="AJ645" s="4"/>
     </row>
-    <row r="646" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -26126,7 +26219,7 @@
       <c r="AI646" s="4"/>
       <c r="AJ646" s="4"/>
     </row>
-    <row r="647" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -26164,7 +26257,7 @@
       <c r="AI647" s="4"/>
       <c r="AJ647" s="4"/>
     </row>
-    <row r="648" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -26202,7 +26295,7 @@
       <c r="AI648" s="4"/>
       <c r="AJ648" s="4"/>
     </row>
-    <row r="649" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -26240,7 +26333,7 @@
       <c r="AI649" s="4"/>
       <c r="AJ649" s="4"/>
     </row>
-    <row r="650" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -26278,7 +26371,7 @@
       <c r="AI650" s="4"/>
       <c r="AJ650" s="4"/>
     </row>
-    <row r="651" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -26316,7 +26409,7 @@
       <c r="AI651" s="4"/>
       <c r="AJ651" s="4"/>
     </row>
-    <row r="652" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -26354,7 +26447,7 @@
       <c r="AI652" s="4"/>
       <c r="AJ652" s="4"/>
     </row>
-    <row r="653" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -26392,7 +26485,7 @@
       <c r="AI653" s="4"/>
       <c r="AJ653" s="4"/>
     </row>
-    <row r="654" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -26430,7 +26523,7 @@
       <c r="AI654" s="4"/>
       <c r="AJ654" s="4"/>
     </row>
-    <row r="655" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -26468,7 +26561,7 @@
       <c r="AI655" s="4"/>
       <c r="AJ655" s="4"/>
     </row>
-    <row r="656" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -26506,7 +26599,7 @@
       <c r="AI656" s="4"/>
       <c r="AJ656" s="4"/>
     </row>
-    <row r="657" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -26544,7 +26637,7 @@
       <c r="AI657" s="4"/>
       <c r="AJ657" s="4"/>
     </row>
-    <row r="658" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -26582,7 +26675,7 @@
       <c r="AI658" s="4"/>
       <c r="AJ658" s="4"/>
     </row>
-    <row r="659" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -26620,7 +26713,7 @@
       <c r="AI659" s="4"/>
       <c r="AJ659" s="4"/>
     </row>
-    <row r="660" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -26658,7 +26751,7 @@
       <c r="AI660" s="4"/>
       <c r="AJ660" s="4"/>
     </row>
-    <row r="661" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -26696,7 +26789,7 @@
       <c r="AI661" s="4"/>
       <c r="AJ661" s="4"/>
     </row>
-    <row r="662" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -26734,7 +26827,7 @@
       <c r="AI662" s="4"/>
       <c r="AJ662" s="4"/>
     </row>
-    <row r="663" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -26772,7 +26865,7 @@
       <c r="AI663" s="4"/>
       <c r="AJ663" s="4"/>
     </row>
-    <row r="664" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -26810,7 +26903,7 @@
       <c r="AI664" s="4"/>
       <c r="AJ664" s="4"/>
     </row>
-    <row r="665" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -26848,7 +26941,7 @@
       <c r="AI665" s="4"/>
       <c r="AJ665" s="4"/>
     </row>
-    <row r="666" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -26886,7 +26979,7 @@
       <c r="AI666" s="4"/>
       <c r="AJ666" s="4"/>
     </row>
-    <row r="667" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -26924,7 +27017,7 @@
       <c r="AI667" s="4"/>
       <c r="AJ667" s="4"/>
     </row>
-    <row r="668" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -26962,7 +27055,7 @@
       <c r="AI668" s="4"/>
       <c r="AJ668" s="4"/>
     </row>
-    <row r="669" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -27000,7 +27093,7 @@
       <c r="AI669" s="4"/>
       <c r="AJ669" s="4"/>
     </row>
-    <row r="670" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -27038,7 +27131,7 @@
       <c r="AI670" s="4"/>
       <c r="AJ670" s="4"/>
     </row>
-    <row r="671" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -27076,7 +27169,7 @@
       <c r="AI671" s="4"/>
       <c r="AJ671" s="4"/>
     </row>
-    <row r="672" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -27114,7 +27207,7 @@
       <c r="AI672" s="4"/>
       <c r="AJ672" s="4"/>
     </row>
-    <row r="673" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -27152,7 +27245,7 @@
       <c r="AI673" s="4"/>
       <c r="AJ673" s="4"/>
     </row>
-    <row r="674" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -27190,7 +27283,7 @@
       <c r="AI674" s="4"/>
       <c r="AJ674" s="4"/>
     </row>
-    <row r="675" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -27228,7 +27321,7 @@
       <c r="AI675" s="4"/>
       <c r="AJ675" s="4"/>
     </row>
-    <row r="676" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -27266,7 +27359,7 @@
       <c r="AI676" s="4"/>
       <c r="AJ676" s="4"/>
     </row>
-    <row r="677" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -27304,7 +27397,7 @@
       <c r="AI677" s="4"/>
       <c r="AJ677" s="4"/>
     </row>
-    <row r="678" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -27342,7 +27435,7 @@
       <c r="AI678" s="4"/>
       <c r="AJ678" s="4"/>
     </row>
-    <row r="679" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -27380,7 +27473,7 @@
       <c r="AI679" s="4"/>
       <c r="AJ679" s="4"/>
     </row>
-    <row r="680" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -27418,7 +27511,7 @@
       <c r="AI680" s="4"/>
       <c r="AJ680" s="4"/>
     </row>
-    <row r="681" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -27456,7 +27549,7 @@
       <c r="AI681" s="4"/>
       <c r="AJ681" s="4"/>
     </row>
-    <row r="682" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -27494,7 +27587,7 @@
       <c r="AI682" s="4"/>
       <c r="AJ682" s="4"/>
     </row>
-    <row r="683" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -27532,7 +27625,7 @@
       <c r="AI683" s="4"/>
       <c r="AJ683" s="4"/>
     </row>
-    <row r="684" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -27570,7 +27663,7 @@
       <c r="AI684" s="4"/>
       <c r="AJ684" s="4"/>
     </row>
-    <row r="685" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -27608,7 +27701,7 @@
       <c r="AI685" s="4"/>
       <c r="AJ685" s="4"/>
     </row>
-    <row r="686" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -27646,7 +27739,7 @@
       <c r="AI686" s="4"/>
       <c r="AJ686" s="4"/>
     </row>
-    <row r="687" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -27684,7 +27777,7 @@
       <c r="AI687" s="4"/>
       <c r="AJ687" s="4"/>
     </row>
-    <row r="688" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -27722,7 +27815,7 @@
       <c r="AI688" s="4"/>
       <c r="AJ688" s="4"/>
     </row>
-    <row r="689" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -27760,7 +27853,7 @@
       <c r="AI689" s="4"/>
       <c r="AJ689" s="4"/>
     </row>
-    <row r="690" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -27798,7 +27891,7 @@
       <c r="AI690" s="4"/>
       <c r="AJ690" s="4"/>
     </row>
-    <row r="691" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -27836,7 +27929,7 @@
       <c r="AI691" s="4"/>
       <c r="AJ691" s="4"/>
     </row>
-    <row r="692" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -27874,7 +27967,7 @@
       <c r="AI692" s="4"/>
       <c r="AJ692" s="4"/>
     </row>
-    <row r="693" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -27912,7 +28005,7 @@
       <c r="AI693" s="4"/>
       <c r="AJ693" s="4"/>
     </row>
-    <row r="694" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -27950,7 +28043,7 @@
       <c r="AI694" s="4"/>
       <c r="AJ694" s="4"/>
     </row>
-    <row r="695" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -27988,7 +28081,7 @@
       <c r="AI695" s="4"/>
       <c r="AJ695" s="4"/>
     </row>
-    <row r="696" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -28026,7 +28119,7 @@
       <c r="AI696" s="4"/>
       <c r="AJ696" s="4"/>
     </row>
-    <row r="697" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -28064,7 +28157,7 @@
       <c r="AI697" s="4"/>
       <c r="AJ697" s="4"/>
     </row>
-    <row r="698" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -28102,7 +28195,7 @@
       <c r="AI698" s="4"/>
       <c r="AJ698" s="4"/>
     </row>
-    <row r="699" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -28140,7 +28233,7 @@
       <c r="AI699" s="4"/>
       <c r="AJ699" s="4"/>
     </row>
-    <row r="700" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -28178,7 +28271,7 @@
       <c r="AI700" s="4"/>
       <c r="AJ700" s="4"/>
     </row>
-    <row r="701" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -28216,7 +28309,7 @@
       <c r="AI701" s="4"/>
       <c r="AJ701" s="4"/>
     </row>
-    <row r="702" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -28254,7 +28347,7 @@
       <c r="AI702" s="4"/>
       <c r="AJ702" s="4"/>
     </row>
-    <row r="703" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -28292,7 +28385,7 @@
       <c r="AI703" s="4"/>
       <c r="AJ703" s="4"/>
     </row>
-    <row r="704" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -28330,7 +28423,7 @@
       <c r="AI704" s="4"/>
       <c r="AJ704" s="4"/>
     </row>
-    <row r="705" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -28368,7 +28461,7 @@
       <c r="AI705" s="4"/>
       <c r="AJ705" s="4"/>
     </row>
-    <row r="706" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -28406,7 +28499,7 @@
       <c r="AI706" s="4"/>
       <c r="AJ706" s="4"/>
     </row>
-    <row r="707" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -28444,7 +28537,7 @@
       <c r="AI707" s="4"/>
       <c r="AJ707" s="4"/>
     </row>
-    <row r="708" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -28482,7 +28575,7 @@
       <c r="AI708" s="4"/>
       <c r="AJ708" s="4"/>
     </row>
-    <row r="709" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -28520,7 +28613,7 @@
       <c r="AI709" s="4"/>
       <c r="AJ709" s="4"/>
     </row>
-    <row r="710" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -28558,7 +28651,7 @@
       <c r="AI710" s="4"/>
       <c r="AJ710" s="4"/>
     </row>
-    <row r="711" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -28596,7 +28689,7 @@
       <c r="AI711" s="4"/>
       <c r="AJ711" s="4"/>
     </row>
-    <row r="712" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -28634,7 +28727,7 @@
       <c r="AI712" s="4"/>
       <c r="AJ712" s="4"/>
     </row>
-    <row r="713" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -28672,7 +28765,7 @@
       <c r="AI713" s="4"/>
       <c r="AJ713" s="4"/>
     </row>
-    <row r="714" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -28710,7 +28803,7 @@
       <c r="AI714" s="4"/>
       <c r="AJ714" s="4"/>
     </row>
-    <row r="715" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -28748,7 +28841,7 @@
       <c r="AI715" s="4"/>
       <c r="AJ715" s="4"/>
     </row>
-    <row r="716" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -28786,7 +28879,7 @@
       <c r="AI716" s="4"/>
       <c r="AJ716" s="4"/>
     </row>
-    <row r="717" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -28824,7 +28917,7 @@
       <c r="AI717" s="4"/>
       <c r="AJ717" s="4"/>
     </row>
-    <row r="718" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -28862,7 +28955,7 @@
       <c r="AI718" s="4"/>
       <c r="AJ718" s="4"/>
     </row>
-    <row r="719" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -28900,7 +28993,7 @@
       <c r="AI719" s="4"/>
       <c r="AJ719" s="4"/>
     </row>
-    <row r="720" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -28938,7 +29031,7 @@
       <c r="AI720" s="4"/>
       <c r="AJ720" s="4"/>
     </row>
-    <row r="721" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -28976,7 +29069,7 @@
       <c r="AI721" s="4"/>
       <c r="AJ721" s="4"/>
     </row>
-    <row r="722" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -29014,7 +29107,7 @@
       <c r="AI722" s="4"/>
       <c r="AJ722" s="4"/>
     </row>
-    <row r="723" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -29052,7 +29145,7 @@
       <c r="AI723" s="4"/>
       <c r="AJ723" s="4"/>
     </row>
-    <row r="724" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -29090,7 +29183,7 @@
       <c r="AI724" s="4"/>
       <c r="AJ724" s="4"/>
     </row>
-    <row r="725" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -29128,7 +29221,7 @@
       <c r="AI725" s="4"/>
       <c r="AJ725" s="4"/>
     </row>
-    <row r="726" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -29166,7 +29259,7 @@
       <c r="AI726" s="4"/>
       <c r="AJ726" s="4"/>
     </row>
-    <row r="727" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -29204,7 +29297,7 @@
       <c r="AI727" s="4"/>
       <c r="AJ727" s="4"/>
     </row>
-    <row r="728" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -29242,7 +29335,7 @@
       <c r="AI728" s="4"/>
       <c r="AJ728" s="4"/>
     </row>
-    <row r="729" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -29280,7 +29373,7 @@
       <c r="AI729" s="4"/>
       <c r="AJ729" s="4"/>
     </row>
-    <row r="730" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -29318,7 +29411,7 @@
       <c r="AI730" s="4"/>
       <c r="AJ730" s="4"/>
     </row>
-    <row r="731" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -29356,7 +29449,7 @@
       <c r="AI731" s="4"/>
       <c r="AJ731" s="4"/>
     </row>
-    <row r="732" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -29394,7 +29487,7 @@
       <c r="AI732" s="4"/>
       <c r="AJ732" s="4"/>
     </row>
-    <row r="733" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -29432,7 +29525,7 @@
       <c r="AI733" s="4"/>
       <c r="AJ733" s="4"/>
     </row>
-    <row r="734" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -29470,7 +29563,7 @@
       <c r="AI734" s="4"/>
       <c r="AJ734" s="4"/>
     </row>
-    <row r="735" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -29508,7 +29601,7 @@
       <c r="AI735" s="4"/>
       <c r="AJ735" s="4"/>
     </row>
-    <row r="736" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -29546,7 +29639,7 @@
       <c r="AI736" s="4"/>
       <c r="AJ736" s="4"/>
     </row>
-    <row r="737" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -29584,7 +29677,7 @@
       <c r="AI737" s="4"/>
       <c r="AJ737" s="4"/>
     </row>
-    <row r="738" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -29622,7 +29715,7 @@
       <c r="AI738" s="4"/>
       <c r="AJ738" s="4"/>
     </row>
-    <row r="739" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -29660,7 +29753,7 @@
       <c r="AI739" s="4"/>
       <c r="AJ739" s="4"/>
     </row>
-    <row r="740" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -29698,7 +29791,7 @@
       <c r="AI740" s="4"/>
       <c r="AJ740" s="4"/>
     </row>
-    <row r="741" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -29736,7 +29829,7 @@
       <c r="AI741" s="4"/>
       <c r="AJ741" s="4"/>
     </row>
-    <row r="742" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -29774,7 +29867,7 @@
       <c r="AI742" s="4"/>
       <c r="AJ742" s="4"/>
     </row>
-    <row r="743" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -29812,7 +29905,7 @@
       <c r="AI743" s="4"/>
       <c r="AJ743" s="4"/>
     </row>
-    <row r="744" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -29850,7 +29943,7 @@
       <c r="AI744" s="4"/>
       <c r="AJ744" s="4"/>
     </row>
-    <row r="745" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -29888,7 +29981,7 @@
       <c r="AI745" s="4"/>
       <c r="AJ745" s="4"/>
     </row>
-    <row r="746" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -29926,7 +30019,7 @@
       <c r="AI746" s="4"/>
       <c r="AJ746" s="4"/>
     </row>
-    <row r="747" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -29964,7 +30057,7 @@
       <c r="AI747" s="4"/>
       <c r="AJ747" s="4"/>
     </row>
-    <row r="748" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -30002,7 +30095,7 @@
       <c r="AI748" s="4"/>
       <c r="AJ748" s="4"/>
     </row>
-    <row r="749" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -30040,7 +30133,7 @@
       <c r="AI749" s="4"/>
       <c r="AJ749" s="4"/>
     </row>
-    <row r="750" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -30078,7 +30171,7 @@
       <c r="AI750" s="4"/>
       <c r="AJ750" s="4"/>
     </row>
-    <row r="751" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -30116,7 +30209,7 @@
       <c r="AI751" s="4"/>
       <c r="AJ751" s="4"/>
     </row>
-    <row r="752" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -30154,7 +30247,7 @@
       <c r="AI752" s="4"/>
       <c r="AJ752" s="4"/>
     </row>
-    <row r="753" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -30192,7 +30285,7 @@
       <c r="AI753" s="4"/>
       <c r="AJ753" s="4"/>
     </row>
-    <row r="754" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -30230,7 +30323,7 @@
       <c r="AI754" s="4"/>
       <c r="AJ754" s="4"/>
     </row>
-    <row r="755" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -30268,7 +30361,7 @@
       <c r="AI755" s="4"/>
       <c r="AJ755" s="4"/>
     </row>
-    <row r="756" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -30306,7 +30399,7 @@
       <c r="AI756" s="4"/>
       <c r="AJ756" s="4"/>
     </row>
-    <row r="757" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -30344,7 +30437,7 @@
       <c r="AI757" s="4"/>
       <c r="AJ757" s="4"/>
     </row>
-    <row r="758" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -30382,7 +30475,7 @@
       <c r="AI758" s="4"/>
       <c r="AJ758" s="4"/>
     </row>
-    <row r="759" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -30420,7 +30513,7 @@
       <c r="AI759" s="4"/>
       <c r="AJ759" s="4"/>
     </row>
-    <row r="760" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -30458,7 +30551,7 @@
       <c r="AI760" s="4"/>
       <c r="AJ760" s="4"/>
     </row>
-    <row r="761" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -30496,7 +30589,7 @@
       <c r="AI761" s="4"/>
       <c r="AJ761" s="4"/>
     </row>
-    <row r="762" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -30534,7 +30627,7 @@
       <c r="AI762" s="4"/>
       <c r="AJ762" s="4"/>
     </row>
-    <row r="763" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -30572,7 +30665,7 @@
       <c r="AI763" s="4"/>
       <c r="AJ763" s="4"/>
     </row>
-    <row r="764" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -30610,7 +30703,7 @@
       <c r="AI764" s="4"/>
       <c r="AJ764" s="4"/>
     </row>
-    <row r="765" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -30648,7 +30741,7 @@
       <c r="AI765" s="4"/>
       <c r="AJ765" s="4"/>
     </row>
-    <row r="766" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -30686,7 +30779,7 @@
       <c r="AI766" s="4"/>
       <c r="AJ766" s="4"/>
     </row>
-    <row r="767" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -30724,7 +30817,7 @@
       <c r="AI767" s="4"/>
       <c r="AJ767" s="4"/>
     </row>
-    <row r="768" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -30762,7 +30855,7 @@
       <c r="AI768" s="4"/>
       <c r="AJ768" s="4"/>
     </row>
-    <row r="769" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -30800,7 +30893,7 @@
       <c r="AI769" s="4"/>
       <c r="AJ769" s="4"/>
     </row>
-    <row r="770" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -30838,7 +30931,7 @@
       <c r="AI770" s="4"/>
       <c r="AJ770" s="4"/>
     </row>
-    <row r="771" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -30876,7 +30969,7 @@
       <c r="AI771" s="4"/>
       <c r="AJ771" s="4"/>
     </row>
-    <row r="772" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -30914,7 +31007,7 @@
       <c r="AI772" s="4"/>
       <c r="AJ772" s="4"/>
     </row>
-    <row r="773" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -30952,7 +31045,7 @@
       <c r="AI773" s="4"/>
       <c r="AJ773" s="4"/>
     </row>
-    <row r="774" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -30990,7 +31083,7 @@
       <c r="AI774" s="4"/>
       <c r="AJ774" s="4"/>
     </row>
-    <row r="775" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -31028,7 +31121,7 @@
       <c r="AI775" s="4"/>
       <c r="AJ775" s="4"/>
     </row>
-    <row r="776" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -31066,7 +31159,7 @@
       <c r="AI776" s="4"/>
       <c r="AJ776" s="4"/>
     </row>
-    <row r="777" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -31104,7 +31197,7 @@
       <c r="AI777" s="4"/>
       <c r="AJ777" s="4"/>
     </row>
-    <row r="778" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -31142,7 +31235,7 @@
       <c r="AI778" s="4"/>
       <c r="AJ778" s="4"/>
     </row>
-    <row r="779" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -31180,7 +31273,7 @@
       <c r="AI779" s="4"/>
       <c r="AJ779" s="4"/>
     </row>
-    <row r="780" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -31218,7 +31311,7 @@
       <c r="AI780" s="4"/>
       <c r="AJ780" s="4"/>
     </row>
-    <row r="781" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -31256,7 +31349,7 @@
       <c r="AI781" s="4"/>
       <c r="AJ781" s="4"/>
     </row>
-    <row r="782" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -31294,7 +31387,7 @@
       <c r="AI782" s="4"/>
       <c r="AJ782" s="4"/>
     </row>
-    <row r="783" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -31332,7 +31425,7 @@
       <c r="AI783" s="4"/>
       <c r="AJ783" s="4"/>
     </row>
-    <row r="784" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -31370,7 +31463,7 @@
       <c r="AI784" s="4"/>
       <c r="AJ784" s="4"/>
     </row>
-    <row r="785" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -31408,7 +31501,7 @@
       <c r="AI785" s="4"/>
       <c r="AJ785" s="4"/>
     </row>
-    <row r="786" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -31446,7 +31539,7 @@
       <c r="AI786" s="4"/>
       <c r="AJ786" s="4"/>
     </row>
-    <row r="787" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -31484,7 +31577,7 @@
       <c r="AI787" s="4"/>
       <c r="AJ787" s="4"/>
     </row>
-    <row r="788" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -31522,7 +31615,7 @@
       <c r="AI788" s="4"/>
       <c r="AJ788" s="4"/>
     </row>
-    <row r="789" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -31560,7 +31653,7 @@
       <c r="AI789" s="4"/>
       <c r="AJ789" s="4"/>
     </row>
-    <row r="790" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -31598,7 +31691,7 @@
       <c r="AI790" s="4"/>
       <c r="AJ790" s="4"/>
     </row>
-    <row r="791" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -31636,7 +31729,7 @@
       <c r="AI791" s="4"/>
       <c r="AJ791" s="4"/>
     </row>
-    <row r="792" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -31674,7 +31767,7 @@
       <c r="AI792" s="4"/>
       <c r="AJ792" s="4"/>
     </row>
-    <row r="793" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -31712,7 +31805,7 @@
       <c r="AI793" s="4"/>
       <c r="AJ793" s="4"/>
     </row>
-    <row r="794" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -31750,7 +31843,7 @@
       <c r="AI794" s="4"/>
       <c r="AJ794" s="4"/>
     </row>
-    <row r="795" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -31788,7 +31881,7 @@
       <c r="AI795" s="4"/>
       <c r="AJ795" s="4"/>
     </row>
-    <row r="796" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -31826,7 +31919,7 @@
       <c r="AI796" s="4"/>
       <c r="AJ796" s="4"/>
     </row>
-    <row r="797" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -31864,7 +31957,7 @@
       <c r="AI797" s="4"/>
       <c r="AJ797" s="4"/>
     </row>
-    <row r="798" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -31902,7 +31995,7 @@
       <c r="AI798" s="4"/>
       <c r="AJ798" s="4"/>
     </row>
-    <row r="799" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -31940,7 +32033,7 @@
       <c r="AI799" s="4"/>
       <c r="AJ799" s="4"/>
     </row>
-    <row r="800" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -31978,7 +32071,7 @@
       <c r="AI800" s="4"/>
       <c r="AJ800" s="4"/>
     </row>
-    <row r="801" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -32016,7 +32109,7 @@
       <c r="AI801" s="4"/>
       <c r="AJ801" s="4"/>
     </row>
-    <row r="802" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -32054,7 +32147,7 @@
       <c r="AI802" s="4"/>
       <c r="AJ802" s="4"/>
     </row>
-    <row r="803" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -32092,7 +32185,7 @@
       <c r="AI803" s="4"/>
       <c r="AJ803" s="4"/>
     </row>
-    <row r="804" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -32130,7 +32223,7 @@
       <c r="AI804" s="4"/>
       <c r="AJ804" s="4"/>
     </row>
-    <row r="805" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -32168,7 +32261,7 @@
       <c r="AI805" s="4"/>
       <c r="AJ805" s="4"/>
     </row>
-    <row r="806" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -32206,7 +32299,7 @@
       <c r="AI806" s="4"/>
       <c r="AJ806" s="4"/>
     </row>
-    <row r="807" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -32244,7 +32337,7 @@
       <c r="AI807" s="4"/>
       <c r="AJ807" s="4"/>
     </row>
-    <row r="808" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -32282,7 +32375,7 @@
       <c r="AI808" s="4"/>
       <c r="AJ808" s="4"/>
     </row>
-    <row r="809" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -32320,7 +32413,7 @@
       <c r="AI809" s="4"/>
       <c r="AJ809" s="4"/>
     </row>
-    <row r="810" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -32358,7 +32451,7 @@
       <c r="AI810" s="4"/>
       <c r="AJ810" s="4"/>
     </row>
-    <row r="811" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -32396,7 +32489,7 @@
       <c r="AI811" s="4"/>
       <c r="AJ811" s="4"/>
     </row>
-    <row r="812" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -32434,7 +32527,7 @@
       <c r="AI812" s="4"/>
       <c r="AJ812" s="4"/>
     </row>
-    <row r="813" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -32472,7 +32565,7 @@
       <c r="AI813" s="4"/>
       <c r="AJ813" s="4"/>
     </row>
-    <row r="814" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -32510,7 +32603,7 @@
       <c r="AI814" s="4"/>
       <c r="AJ814" s="4"/>
     </row>
-    <row r="815" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -32548,7 +32641,7 @@
       <c r="AI815" s="4"/>
       <c r="AJ815" s="4"/>
     </row>
-    <row r="816" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -32586,7 +32679,7 @@
       <c r="AI816" s="4"/>
       <c r="AJ816" s="4"/>
     </row>
-    <row r="817" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -32624,7 +32717,7 @@
       <c r="AI817" s="4"/>
       <c r="AJ817" s="4"/>
     </row>
-    <row r="818" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -32662,7 +32755,7 @@
       <c r="AI818" s="4"/>
       <c r="AJ818" s="4"/>
     </row>
-    <row r="819" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -32700,7 +32793,7 @@
       <c r="AI819" s="4"/>
       <c r="AJ819" s="4"/>
     </row>
-    <row r="820" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -32738,7 +32831,7 @@
       <c r="AI820" s="4"/>
       <c r="AJ820" s="4"/>
     </row>
-    <row r="821" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -32776,7 +32869,7 @@
       <c r="AI821" s="4"/>
       <c r="AJ821" s="4"/>
     </row>
-    <row r="822" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -32814,7 +32907,7 @@
       <c r="AI822" s="4"/>
       <c r="AJ822" s="4"/>
     </row>
-    <row r="823" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -32852,7 +32945,7 @@
       <c r="AI823" s="4"/>
       <c r="AJ823" s="4"/>
     </row>
-    <row r="824" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -32890,7 +32983,7 @@
       <c r="AI824" s="4"/>
       <c r="AJ824" s="4"/>
     </row>
-    <row r="825" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -32928,7 +33021,7 @@
       <c r="AI825" s="4"/>
       <c r="AJ825" s="4"/>
     </row>
-    <row r="826" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -32966,7 +33059,7 @@
       <c r="AI826" s="4"/>
       <c r="AJ826" s="4"/>
     </row>
-    <row r="827" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -33004,7 +33097,7 @@
       <c r="AI827" s="4"/>
       <c r="AJ827" s="4"/>
     </row>
-    <row r="828" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -33042,7 +33135,7 @@
       <c r="AI828" s="4"/>
       <c r="AJ828" s="4"/>
     </row>
-    <row r="829" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -33080,7 +33173,7 @@
       <c r="AI829" s="4"/>
       <c r="AJ829" s="4"/>
     </row>
-    <row r="830" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -33118,7 +33211,7 @@
       <c r="AI830" s="4"/>
       <c r="AJ830" s="4"/>
     </row>
-    <row r="831" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -33156,7 +33249,7 @@
       <c r="AI831" s="4"/>
       <c r="AJ831" s="4"/>
     </row>
-    <row r="832" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -33194,7 +33287,7 @@
       <c r="AI832" s="4"/>
       <c r="AJ832" s="4"/>
     </row>
-    <row r="833" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -33232,7 +33325,7 @@
       <c r="AI833" s="4"/>
       <c r="AJ833" s="4"/>
     </row>
-    <row r="834" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -33270,7 +33363,7 @@
       <c r="AI834" s="4"/>
       <c r="AJ834" s="4"/>
     </row>
-    <row r="835" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -33308,7 +33401,7 @@
       <c r="AI835" s="4"/>
       <c r="AJ835" s="4"/>
     </row>
-    <row r="836" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -33346,7 +33439,7 @@
       <c r="AI836" s="4"/>
       <c r="AJ836" s="4"/>
     </row>
-    <row r="837" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -33384,7 +33477,7 @@
       <c r="AI837" s="4"/>
       <c r="AJ837" s="4"/>
     </row>
-    <row r="838" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -33422,7 +33515,7 @@
       <c r="AI838" s="4"/>
       <c r="AJ838" s="4"/>
     </row>
-    <row r="839" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -33460,7 +33553,7 @@
       <c r="AI839" s="4"/>
       <c r="AJ839" s="4"/>
     </row>
-    <row r="840" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -33498,7 +33591,7 @@
       <c r="AI840" s="4"/>
       <c r="AJ840" s="4"/>
     </row>
-    <row r="841" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -33536,7 +33629,7 @@
       <c r="AI841" s="4"/>
       <c r="AJ841" s="4"/>
     </row>
-    <row r="842" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -33574,7 +33667,7 @@
       <c r="AI842" s="4"/>
       <c r="AJ842" s="4"/>
     </row>
-    <row r="843" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -33612,7 +33705,7 @@
       <c r="AI843" s="4"/>
       <c r="AJ843" s="4"/>
     </row>
-    <row r="844" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -33650,7 +33743,7 @@
       <c r="AI844" s="4"/>
       <c r="AJ844" s="4"/>
     </row>
-    <row r="845" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -33688,7 +33781,7 @@
       <c r="AI845" s="4"/>
       <c r="AJ845" s="4"/>
     </row>
-    <row r="846" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -33726,7 +33819,7 @@
       <c r="AI846" s="4"/>
       <c r="AJ846" s="4"/>
     </row>
-    <row r="847" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -33764,7 +33857,7 @@
       <c r="AI847" s="4"/>
       <c r="AJ847" s="4"/>
     </row>
-    <row r="848" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -33802,7 +33895,7 @@
       <c r="AI848" s="4"/>
       <c r="AJ848" s="4"/>
     </row>
-    <row r="849" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -33840,7 +33933,7 @@
       <c r="AI849" s="4"/>
       <c r="AJ849" s="4"/>
     </row>
-    <row r="850" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -33878,7 +33971,7 @@
       <c r="AI850" s="4"/>
       <c r="AJ850" s="4"/>
     </row>
-    <row r="851" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -33916,7 +34009,7 @@
       <c r="AI851" s="4"/>
       <c r="AJ851" s="4"/>
     </row>
-    <row r="852" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -33954,7 +34047,7 @@
       <c r="AI852" s="4"/>
       <c r="AJ852" s="4"/>
     </row>
-    <row r="853" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -33992,7 +34085,7 @@
       <c r="AI853" s="4"/>
       <c r="AJ853" s="4"/>
     </row>
-    <row r="854" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -34030,7 +34123,7 @@
       <c r="AI854" s="4"/>
       <c r="AJ854" s="4"/>
     </row>
-    <row r="855" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -34068,7 +34161,7 @@
       <c r="AI855" s="4"/>
       <c r="AJ855" s="4"/>
     </row>
-    <row r="856" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -34106,7 +34199,7 @@
       <c r="AI856" s="4"/>
       <c r="AJ856" s="4"/>
     </row>
-    <row r="857" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -34144,7 +34237,7 @@
       <c r="AI857" s="4"/>
       <c r="AJ857" s="4"/>
     </row>
-    <row r="858" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -34182,7 +34275,7 @@
       <c r="AI858" s="4"/>
       <c r="AJ858" s="4"/>
     </row>
-    <row r="859" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -34220,7 +34313,7 @@
       <c r="AI859" s="4"/>
       <c r="AJ859" s="4"/>
     </row>
-    <row r="860" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -34258,7 +34351,7 @@
       <c r="AI860" s="4"/>
       <c r="AJ860" s="4"/>
     </row>
-    <row r="861" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -34296,7 +34389,7 @@
       <c r="AI861" s="4"/>
       <c r="AJ861" s="4"/>
     </row>
-    <row r="862" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -34334,7 +34427,7 @@
       <c r="AI862" s="4"/>
       <c r="AJ862" s="4"/>
     </row>
-    <row r="863" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -34372,7 +34465,7 @@
       <c r="AI863" s="4"/>
       <c r="AJ863" s="4"/>
     </row>
-    <row r="864" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -34410,7 +34503,7 @@
       <c r="AI864" s="4"/>
       <c r="AJ864" s="4"/>
     </row>
-    <row r="865" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -34448,7 +34541,7 @@
       <c r="AI865" s="4"/>
       <c r="AJ865" s="4"/>
     </row>
-    <row r="866" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -34486,7 +34579,7 @@
       <c r="AI866" s="4"/>
       <c r="AJ866" s="4"/>
     </row>
-    <row r="867" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -34524,7 +34617,7 @@
       <c r="AI867" s="4"/>
       <c r="AJ867" s="4"/>
     </row>
-    <row r="868" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -34562,7 +34655,7 @@
       <c r="AI868" s="4"/>
       <c r="AJ868" s="4"/>
     </row>
-    <row r="869" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -34600,7 +34693,7 @@
       <c r="AI869" s="4"/>
       <c r="AJ869" s="4"/>
     </row>
-    <row r="870" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -34638,7 +34731,7 @@
       <c r="AI870" s="4"/>
       <c r="AJ870" s="4"/>
     </row>
-    <row r="871" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -34676,7 +34769,7 @@
       <c r="AI871" s="4"/>
       <c r="AJ871" s="4"/>
     </row>
-    <row r="872" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -34714,7 +34807,7 @@
       <c r="AI872" s="4"/>
       <c r="AJ872" s="4"/>
     </row>
-    <row r="873" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -34752,7 +34845,7 @@
       <c r="AI873" s="4"/>
       <c r="AJ873" s="4"/>
     </row>
-    <row r="874" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -34790,7 +34883,7 @@
       <c r="AI874" s="4"/>
       <c r="AJ874" s="4"/>
     </row>
-    <row r="875" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -34828,7 +34921,7 @@
       <c r="AI875" s="4"/>
       <c r="AJ875" s="4"/>
     </row>
-    <row r="876" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -34866,7 +34959,7 @@
       <c r="AI876" s="4"/>
       <c r="AJ876" s="4"/>
     </row>
-    <row r="877" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -34904,7 +34997,7 @@
       <c r="AI877" s="4"/>
       <c r="AJ877" s="4"/>
     </row>
-    <row r="878" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -34942,7 +35035,7 @@
       <c r="AI878" s="4"/>
       <c r="AJ878" s="4"/>
     </row>
-    <row r="879" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -34980,7 +35073,7 @@
       <c r="AI879" s="4"/>
       <c r="AJ879" s="4"/>
     </row>
-    <row r="880" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -35018,7 +35111,7 @@
       <c r="AI880" s="4"/>
       <c r="AJ880" s="4"/>
     </row>
-    <row r="881" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -35056,7 +35149,7 @@
       <c r="AI881" s="4"/>
       <c r="AJ881" s="4"/>
     </row>
-    <row r="882" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -35094,7 +35187,7 @@
       <c r="AI882" s="4"/>
       <c r="AJ882" s="4"/>
     </row>
-    <row r="883" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -35132,7 +35225,7 @@
       <c r="AI883" s="4"/>
       <c r="AJ883" s="4"/>
     </row>
-    <row r="884" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -35170,7 +35263,7 @@
       <c r="AI884" s="4"/>
       <c r="AJ884" s="4"/>
     </row>
-    <row r="885" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -35208,7 +35301,7 @@
       <c r="AI885" s="4"/>
       <c r="AJ885" s="4"/>
     </row>
-    <row r="886" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -35246,7 +35339,7 @@
       <c r="AI886" s="4"/>
       <c r="AJ886" s="4"/>
     </row>
-    <row r="887" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -35284,7 +35377,7 @@
       <c r="AI887" s="4"/>
       <c r="AJ887" s="4"/>
     </row>
-    <row r="888" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -35322,7 +35415,7 @@
       <c r="AI888" s="4"/>
       <c r="AJ888" s="4"/>
     </row>
-    <row r="889" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -35360,7 +35453,7 @@
       <c r="AI889" s="4"/>
       <c r="AJ889" s="4"/>
     </row>
-    <row r="890" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -35398,7 +35491,7 @@
       <c r="AI890" s="4"/>
       <c r="AJ890" s="4"/>
     </row>
-    <row r="891" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -35436,7 +35529,7 @@
       <c r="AI891" s="4"/>
       <c r="AJ891" s="4"/>
     </row>
-    <row r="892" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -35474,7 +35567,7 @@
       <c r="AI892" s="4"/>
       <c r="AJ892" s="4"/>
     </row>
-    <row r="893" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -35512,7 +35605,7 @@
       <c r="AI893" s="4"/>
       <c r="AJ893" s="4"/>
     </row>
-    <row r="894" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -35550,7 +35643,7 @@
       <c r="AI894" s="4"/>
       <c r="AJ894" s="4"/>
     </row>
-    <row r="895" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -35588,7 +35681,7 @@
       <c r="AI895" s="4"/>
       <c r="AJ895" s="4"/>
     </row>
-    <row r="896" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -35626,7 +35719,7 @@
       <c r="AI896" s="4"/>
       <c r="AJ896" s="4"/>
     </row>
-    <row r="897" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -35664,7 +35757,7 @@
       <c r="AI897" s="4"/>
       <c r="AJ897" s="4"/>
     </row>
-    <row r="898" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -35702,7 +35795,7 @@
       <c r="AI898" s="4"/>
       <c r="AJ898" s="4"/>
     </row>
-    <row r="899" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -35740,7 +35833,7 @@
       <c r="AI899" s="4"/>
       <c r="AJ899" s="4"/>
     </row>
-    <row r="900" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -35778,7 +35871,7 @@
       <c r="AI900" s="4"/>
       <c r="AJ900" s="4"/>
     </row>
-    <row r="901" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -35816,7 +35909,7 @@
       <c r="AI901" s="4"/>
       <c r="AJ901" s="4"/>
     </row>
-    <row r="902" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -35854,7 +35947,7 @@
       <c r="AI902" s="4"/>
       <c r="AJ902" s="4"/>
     </row>
-    <row r="903" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -35892,7 +35985,7 @@
       <c r="AI903" s="4"/>
       <c r="AJ903" s="4"/>
     </row>
-    <row r="904" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -35930,7 +36023,7 @@
       <c r="AI904" s="4"/>
       <c r="AJ904" s="4"/>
     </row>
-    <row r="905" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -35968,7 +36061,7 @@
       <c r="AI905" s="4"/>
       <c r="AJ905" s="4"/>
     </row>
-    <row r="906" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -36006,7 +36099,7 @@
       <c r="AI906" s="4"/>
       <c r="AJ906" s="4"/>
     </row>
-    <row r="907" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -36044,7 +36137,7 @@
       <c r="AI907" s="4"/>
       <c r="AJ907" s="4"/>
     </row>
-    <row r="908" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -36082,7 +36175,7 @@
       <c r="AI908" s="4"/>
       <c r="AJ908" s="4"/>
     </row>
-    <row r="909" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -36120,7 +36213,7 @@
       <c r="AI909" s="4"/>
       <c r="AJ909" s="4"/>
     </row>
-    <row r="910" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -36158,7 +36251,7 @@
       <c r="AI910" s="4"/>
       <c r="AJ910" s="4"/>
     </row>
-    <row r="911" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -36196,7 +36289,7 @@
       <c r="AI911" s="4"/>
       <c r="AJ911" s="4"/>
     </row>
-    <row r="912" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -36234,7 +36327,7 @@
       <c r="AI912" s="4"/>
       <c r="AJ912" s="4"/>
     </row>
-    <row r="913" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -36272,7 +36365,7 @@
       <c r="AI913" s="4"/>
       <c r="AJ913" s="4"/>
     </row>
-    <row r="914" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -36310,7 +36403,7 @@
       <c r="AI914" s="4"/>
       <c r="AJ914" s="4"/>
     </row>
-    <row r="915" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -36348,7 +36441,7 @@
       <c r="AI915" s="4"/>
       <c r="AJ915" s="4"/>
     </row>
-    <row r="916" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -36386,7 +36479,7 @@
       <c r="AI916" s="4"/>
       <c r="AJ916" s="4"/>
     </row>
-    <row r="917" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -36424,7 +36517,7 @@
       <c r="AI917" s="4"/>
       <c r="AJ917" s="4"/>
     </row>
-    <row r="918" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -36462,7 +36555,7 @@
       <c r="AI918" s="4"/>
       <c r="AJ918" s="4"/>
     </row>
-    <row r="919" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -36500,7 +36593,7 @@
       <c r="AI919" s="4"/>
       <c r="AJ919" s="4"/>
     </row>
-    <row r="920" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -36538,7 +36631,7 @@
       <c r="AI920" s="4"/>
       <c r="AJ920" s="4"/>
     </row>
-    <row r="921" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -36576,7 +36669,7 @@
       <c r="AI921" s="4"/>
       <c r="AJ921" s="4"/>
     </row>
-    <row r="922" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -36614,7 +36707,7 @@
       <c r="AI922" s="4"/>
       <c r="AJ922" s="4"/>
     </row>
-    <row r="923" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -36652,7 +36745,7 @@
       <c r="AI923" s="4"/>
       <c r="AJ923" s="4"/>
     </row>
-    <row r="924" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -36690,7 +36783,7 @@
       <c r="AI924" s="4"/>
       <c r="AJ924" s="4"/>
     </row>
-    <row r="925" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -36728,7 +36821,7 @@
       <c r="AI925" s="4"/>
       <c r="AJ925" s="4"/>
     </row>
-    <row r="926" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -36766,7 +36859,7 @@
       <c r="AI926" s="4"/>
       <c r="AJ926" s="4"/>
     </row>
-    <row r="927" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -36804,7 +36897,7 @@
       <c r="AI927" s="4"/>
       <c r="AJ927" s="4"/>
     </row>
-    <row r="928" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -36842,7 +36935,7 @@
       <c r="AI928" s="4"/>
       <c r="AJ928" s="4"/>
     </row>
-    <row r="929" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -36880,7 +36973,7 @@
       <c r="AI929" s="4"/>
       <c r="AJ929" s="4"/>
     </row>
-    <row r="930" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -36918,7 +37011,7 @@
       <c r="AI930" s="4"/>
       <c r="AJ930" s="4"/>
     </row>
-    <row r="931" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -36956,7 +37049,7 @@
       <c r="AI931" s="4"/>
       <c r="AJ931" s="4"/>
     </row>
-    <row r="932" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -36994,7 +37087,7 @@
       <c r="AI932" s="4"/>
       <c r="AJ932" s="4"/>
     </row>
-    <row r="933" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -37032,7 +37125,7 @@
       <c r="AI933" s="4"/>
       <c r="AJ933" s="4"/>
     </row>
-    <row r="934" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -37070,7 +37163,7 @@
       <c r="AI934" s="4"/>
       <c r="AJ934" s="4"/>
     </row>
-    <row r="935" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -37108,7 +37201,7 @@
       <c r="AI935" s="4"/>
       <c r="AJ935" s="4"/>
     </row>
-    <row r="936" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -37146,7 +37239,7 @@
       <c r="AI936" s="4"/>
       <c r="AJ936" s="4"/>
     </row>
-    <row r="937" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -37184,7 +37277,7 @@
       <c r="AI937" s="4"/>
       <c r="AJ937" s="4"/>
     </row>
-    <row r="938" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -37222,7 +37315,7 @@
       <c r="AI938" s="4"/>
       <c r="AJ938" s="4"/>
     </row>
-    <row r="939" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -37260,7 +37353,7 @@
       <c r="AI939" s="4"/>
       <c r="AJ939" s="4"/>
     </row>
-    <row r="940" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -37298,7 +37391,7 @@
       <c r="AI940" s="4"/>
       <c r="AJ940" s="4"/>
     </row>
-    <row r="941" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -37336,7 +37429,7 @@
       <c r="AI941" s="4"/>
       <c r="AJ941" s="4"/>
     </row>
-    <row r="942" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -37374,7 +37467,7 @@
       <c r="AI942" s="4"/>
       <c r="AJ942" s="4"/>
     </row>
-    <row r="943" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -37412,7 +37505,7 @@
       <c r="AI943" s="4"/>
       <c r="AJ943" s="4"/>
     </row>
-    <row r="944" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -37450,7 +37543,7 @@
       <c r="AI944" s="4"/>
       <c r="AJ944" s="4"/>
     </row>
-    <row r="945" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -37488,7 +37581,7 @@
       <c r="AI945" s="4"/>
       <c r="AJ945" s="4"/>
     </row>
-    <row r="946" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -37526,7 +37619,7 @@
       <c r="AI946" s="4"/>
       <c r="AJ946" s="4"/>
     </row>
-    <row r="947" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -37564,7 +37657,7 @@
       <c r="AI947" s="4"/>
       <c r="AJ947" s="4"/>
     </row>
-    <row r="948" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -37602,7 +37695,7 @@
       <c r="AI948" s="4"/>
       <c r="AJ948" s="4"/>
     </row>
-    <row r="949" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -37640,7 +37733,7 @@
       <c r="AI949" s="4"/>
       <c r="AJ949" s="4"/>
     </row>
-    <row r="950" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -37678,7 +37771,7 @@
       <c r="AI950" s="4"/>
       <c r="AJ950" s="4"/>
     </row>
-    <row r="951" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -37716,7 +37809,7 @@
       <c r="AI951" s="4"/>
       <c r="AJ951" s="4"/>
     </row>
-    <row r="952" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -37754,7 +37847,7 @@
       <c r="AI952" s="4"/>
       <c r="AJ952" s="4"/>
     </row>
-    <row r="953" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -37792,7 +37885,7 @@
       <c r="AI953" s="4"/>
       <c r="AJ953" s="4"/>
     </row>
-    <row r="954" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -37830,7 +37923,7 @@
       <c r="AI954" s="4"/>
       <c r="AJ954" s="4"/>
     </row>
-    <row r="955" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -37868,7 +37961,7 @@
       <c r="AI955" s="4"/>
       <c r="AJ955" s="4"/>
     </row>
-    <row r="956" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -37906,7 +37999,7 @@
       <c r="AI956" s="4"/>
       <c r="AJ956" s="4"/>
     </row>
-    <row r="957" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -37944,7 +38037,7 @@
       <c r="AI957" s="4"/>
       <c r="AJ957" s="4"/>
     </row>
-    <row r="958" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -37982,7 +38075,7 @@
       <c r="AI958" s="4"/>
       <c r="AJ958" s="4"/>
     </row>
-    <row r="959" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -38020,7 +38113,7 @@
       <c r="AI959" s="4"/>
       <c r="AJ959" s="4"/>
     </row>
-    <row r="960" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -38058,7 +38151,7 @@
       <c r="AI960" s="4"/>
       <c r="AJ960" s="4"/>
     </row>
-    <row r="961" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -38096,7 +38189,7 @@
       <c r="AI961" s="4"/>
       <c r="AJ961" s="4"/>
     </row>
-    <row r="962" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -38134,7 +38227,7 @@
       <c r="AI962" s="4"/>
       <c r="AJ962" s="4"/>
     </row>
-    <row r="963" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -38172,7 +38265,7 @@
       <c r="AI963" s="4"/>
       <c r="AJ963" s="4"/>
     </row>
-    <row r="964" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -38210,7 +38303,7 @@
       <c r="AI964" s="4"/>
       <c r="AJ964" s="4"/>
     </row>
-    <row r="965" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -38248,7 +38341,7 @@
       <c r="AI965" s="4"/>
       <c r="AJ965" s="4"/>
     </row>
-    <row r="966" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -38286,7 +38379,7 @@
       <c r="AI966" s="4"/>
       <c r="AJ966" s="4"/>
     </row>
-    <row r="967" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -38324,7 +38417,7 @@
       <c r="AI967" s="4"/>
       <c r="AJ967" s="4"/>
     </row>
-    <row r="968" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -38362,7 +38455,7 @@
       <c r="AI968" s="4"/>
       <c r="AJ968" s="4"/>
     </row>
-    <row r="969" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -38400,7 +38493,7 @@
       <c r="AI969" s="4"/>
       <c r="AJ969" s="4"/>
     </row>
-    <row r="970" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -38438,7 +38531,7 @@
       <c r="AI970" s="4"/>
       <c r="AJ970" s="4"/>
     </row>
-    <row r="971" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -38476,7 +38569,7 @@
       <c r="AI971" s="4"/>
       <c r="AJ971" s="4"/>
     </row>
-    <row r="972" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -38514,7 +38607,7 @@
       <c r="AI972" s="4"/>
       <c r="AJ972" s="4"/>
     </row>
-    <row r="973" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -38552,7 +38645,7 @@
       <c r="AI973" s="4"/>
       <c r="AJ973" s="4"/>
     </row>
-    <row r="974" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -38590,7 +38683,7 @@
       <c r="AI974" s="4"/>
       <c r="AJ974" s="4"/>
     </row>
-    <row r="975" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -38628,7 +38721,7 @@
       <c r="AI975" s="4"/>
       <c r="AJ975" s="4"/>
     </row>
-    <row r="976" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -38666,7 +38759,7 @@
       <c r="AI976" s="4"/>
       <c r="AJ976" s="4"/>
     </row>
-    <row r="977" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -38704,7 +38797,7 @@
       <c r="AI977" s="4"/>
       <c r="AJ977" s="4"/>
     </row>
-    <row r="978" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -38742,7 +38835,7 @@
       <c r="AI978" s="4"/>
       <c r="AJ978" s="4"/>
     </row>
-    <row r="979" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -38780,7 +38873,7 @@
       <c r="AI979" s="4"/>
       <c r="AJ979" s="4"/>
     </row>
-    <row r="980" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -38818,7 +38911,7 @@
       <c r="AI980" s="4"/>
       <c r="AJ980" s="4"/>
     </row>
-    <row r="981" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -38856,7 +38949,7 @@
       <c r="AI981" s="4"/>
       <c r="AJ981" s="4"/>
     </row>
-    <row r="982" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -38894,7 +38987,7 @@
       <c r="AI982" s="4"/>
       <c r="AJ982" s="4"/>
     </row>
-    <row r="983" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -38932,7 +39025,7 @@
       <c r="AI983" s="4"/>
       <c r="AJ983" s="4"/>
     </row>
-    <row r="984" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -38970,7 +39063,7 @@
       <c r="AI984" s="4"/>
       <c r="AJ984" s="4"/>
     </row>
-    <row r="985" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -39008,7 +39101,7 @@
       <c r="AI985" s="4"/>
       <c r="AJ985" s="4"/>
     </row>
-    <row r="986" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -39046,7 +39139,7 @@
       <c r="AI986" s="4"/>
       <c r="AJ986" s="4"/>
     </row>
-    <row r="987" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -39084,7 +39177,7 @@
       <c r="AI987" s="4"/>
       <c r="AJ987" s="4"/>
     </row>
-    <row r="988" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -39122,7 +39215,7 @@
       <c r="AI988" s="4"/>
       <c r="AJ988" s="4"/>
     </row>
-    <row r="989" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -39160,7 +39253,7 @@
       <c r="AI989" s="4"/>
       <c r="AJ989" s="4"/>
     </row>
-    <row r="990" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -39198,7 +39291,7 @@
       <c r="AI990" s="4"/>
       <c r="AJ990" s="4"/>
     </row>
-    <row r="991" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -39236,7 +39329,7 @@
       <c r="AI991" s="4"/>
       <c r="AJ991" s="4"/>
     </row>
-    <row r="992" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -39274,7 +39367,7 @@
       <c r="AI992" s="4"/>
       <c r="AJ992" s="4"/>
     </row>
-    <row r="993" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -39312,7 +39405,7 @@
       <c r="AI993" s="4"/>
       <c r="AJ993" s="4"/>
     </row>
-    <row r="994" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -39350,7 +39443,7 @@
       <c r="AI994" s="4"/>
       <c r="AJ994" s="4"/>
     </row>
-    <row r="995" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -39388,7 +39481,7 @@
       <c r="AI995" s="4"/>
       <c r="AJ995" s="4"/>
     </row>
-    <row r="996" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -39426,7 +39519,7 @@
       <c r="AI996" s="4"/>
       <c r="AJ996" s="4"/>
     </row>
-    <row r="997" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -39464,7 +39557,7 @@
       <c r="AI997" s="4"/>
       <c r="AJ997" s="4"/>
     </row>
-    <row r="998" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -39502,7 +39595,7 @@
       <c r="AI998" s="4"/>
       <c r="AJ998" s="4"/>
     </row>
-    <row r="999" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -39540,7 +39633,7 @@
       <c r="AI999" s="4"/>
       <c r="AJ999" s="4"/>
     </row>
-    <row r="1000" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
@@ -39583,4 +39676,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A4F62-4CE7-43C7-B09E-893B126DF297}">
+  <dimension ref="A2:V11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>